--- a/express/db/employees.xlsx
+++ b/express/db/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Projects\africarice-hr\express\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02387DD7-9241-469B-AFA0-F8064B0908BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A32CAC-F70C-4E1B-A6F1-2C6D201F445E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="994">
   <si>
     <t>Resno</t>
   </si>
@@ -2987,6 +2987,21 @@
   </si>
   <si>
     <t>i.ouedraogo@cgiar.org</t>
+  </si>
+  <si>
+    <t>A10877</t>
+  </si>
+  <si>
+    <t>KOUADIO, Amani Louis</t>
+  </si>
+  <si>
+    <t>Rice Agronomist</t>
+  </si>
+  <si>
+    <t>30/04/2026</t>
+  </si>
+  <si>
+    <t>a.kouadio2@cgiar.org</t>
   </si>
 </sst>
 </file>
@@ -3100,17 +3115,7 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FD62377D-6C57-45C7-9ECC-E55899CCDD57}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{41CCC563-58C5-4AD8-8129-53F6DC26DA6B}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3429,10 +3434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q244"/>
+  <dimension ref="A1:Q245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5859,7 +5864,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>239</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>153</v>
@@ -5912,7 +5917,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>282</v>
@@ -5965,7 +5970,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>59</v>
@@ -6018,7 +6023,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>286</v>
@@ -6071,7 +6076,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>293</v>
@@ -6122,7 +6127,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>296</v>
@@ -6173,7 +6178,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>299</v>
@@ -6226,7 +6231,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>303</v>
@@ -6279,7 +6284,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>307</v>
@@ -6329,7 +6334,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>312</v>
@@ -6380,7 +6385,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>315</v>
@@ -6433,7 +6438,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>319</v>
@@ -6483,7 +6488,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>66</v>
@@ -6536,7 +6541,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>326</v>
@@ -6589,7 +6594,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>329</v>
@@ -6639,7 +6644,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>333</v>
@@ -6692,7 +6697,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>200</v>
@@ -6745,7 +6750,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>340</v>
@@ -6798,7 +6803,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>344</v>
@@ -6849,7 +6854,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>350</v>
@@ -6900,7 +6905,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>143</v>
@@ -6953,7 +6958,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>354</v>
@@ -7001,7 +7006,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>357</v>
@@ -7054,7 +7059,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>360</v>
@@ -7105,7 +7110,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>364</v>
@@ -7155,7 +7160,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>218</v>
@@ -7208,7 +7213,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>370</v>
@@ -7261,7 +7266,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>374</v>
@@ -7314,7 +7319,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>181</v>
@@ -7367,7 +7372,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>379</v>
@@ -7420,7 +7425,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>383</v>
@@ -7473,7 +7478,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>387</v>
@@ -7520,7 +7525,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>393</v>
@@ -7573,7 +7578,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>397</v>
@@ -7623,7 +7628,7 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>401</v>
@@ -7674,7 +7679,7 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>404</v>
@@ -7725,7 +7730,7 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>407</v>
@@ -7776,7 +7781,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>410</v>
@@ -7827,7 +7832,7 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>413</v>
@@ -7878,7 +7883,7 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>416</v>
@@ -7929,7 +7934,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>419</v>
@@ -7982,7 +7987,7 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>422</v>
@@ -8032,7 +8037,7 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>426</v>
@@ -8082,7 +8087,7 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>430</v>
@@ -8132,7 +8137,7 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>436</v>
@@ -8185,7 +8190,7 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>43</v>
@@ -8235,7 +8240,7 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>443</v>
@@ -8288,7 +8293,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>446</v>
@@ -8341,7 +8346,7 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>450</v>
@@ -8394,7 +8399,7 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>454</v>
@@ -8442,7 +8447,7 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>459</v>
@@ -8490,7 +8495,7 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>462</v>
@@ -8543,7 +8548,7 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>465</v>
@@ -8587,7 +8592,7 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>471</v>
@@ -8637,7 +8642,7 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>475</v>
@@ -8690,7 +8695,7 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>478</v>
@@ -8743,7 +8748,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>482</v>
@@ -8796,7 +8801,7 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>485</v>
@@ -8844,7 +8849,7 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>252</v>
@@ -8897,7 +8902,7 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>490</v>
@@ -8947,7 +8952,7 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>494</v>
@@ -9000,19 +9005,19 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>497</v>
+        <v>989</v>
       </c>
       <c r="C109" t="s">
-        <v>498</v>
+        <v>990</v>
       </c>
       <c r="D109" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F109" t="s">
         <v>20</v>
@@ -9021,45 +9026,45 @@
         <v>21</v>
       </c>
       <c r="H109">
-        <v>100038</v>
+        <v>100693</v>
       </c>
       <c r="I109" t="s">
-        <v>499</v>
+        <v>991</v>
       </c>
       <c r="J109">
-        <v>100007</v>
+        <v>100150</v>
       </c>
       <c r="K109" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="L109" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="M109" t="s">
-        <v>189</v>
-      </c>
-      <c r="N109" s="2">
-        <v>40371</v>
-      </c>
-      <c r="O109" s="2">
-        <v>73050</v>
+        <v>368</v>
+      </c>
+      <c r="N109" s="8">
+        <v>45296</v>
+      </c>
+      <c r="O109" t="s">
+        <v>992</v>
       </c>
       <c r="P109" t="s">
         <v>26</v>
       </c>
-      <c r="Q109" t="s">
-        <v>931</v>
+      <c r="Q109" s="5" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C110" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D110" t="s">
         <v>30</v>
@@ -9068,31 +9073,31 @@
         <v>31</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H110">
-        <v>100533</v>
+        <v>100038</v>
       </c>
       <c r="I110" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J110">
-        <v>100303</v>
+        <v>100007</v>
       </c>
       <c r="K110" t="s">
-        <v>503</v>
+        <v>187</v>
       </c>
       <c r="L110" t="s">
-        <v>504</v>
+        <v>188</v>
       </c>
       <c r="M110" t="s">
-        <v>505</v>
+        <v>189</v>
       </c>
       <c r="N110" s="2">
-        <v>44511</v>
+        <v>40371</v>
       </c>
       <c r="O110" s="2">
         <v>73050</v>
@@ -9100,19 +9105,19 @@
       <c r="P110" t="s">
         <v>26</v>
       </c>
-      <c r="Q110" s="3" t="s">
-        <v>922</v>
+      <c r="Q110" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C111" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D111" t="s">
         <v>30</v>
@@ -9121,31 +9126,31 @@
         <v>31</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H111">
-        <v>100500</v>
+        <v>100533</v>
       </c>
       <c r="I111" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="J111">
-        <v>100490</v>
+        <v>100303</v>
       </c>
       <c r="K111" t="s">
-        <v>274</v>
+        <v>503</v>
       </c>
       <c r="L111" t="s">
-        <v>275</v>
+        <v>504</v>
       </c>
       <c r="M111" t="s">
-        <v>276</v>
+        <v>505</v>
       </c>
       <c r="N111" s="2">
-        <v>44504</v>
+        <v>44511</v>
       </c>
       <c r="O111" s="2">
         <v>73050</v>
@@ -9153,19 +9158,19 @@
       <c r="P111" t="s">
         <v>26</v>
       </c>
-      <c r="Q111" t="s">
-        <v>509</v>
+      <c r="Q111" s="3" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C112" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D112" t="s">
         <v>30</v>
@@ -9180,10 +9185,10 @@
         <v>21</v>
       </c>
       <c r="H112">
-        <v>100509</v>
+        <v>100500</v>
       </c>
       <c r="I112" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="J112">
         <v>100490</v>
@@ -9207,18 +9212,18 @@
         <v>26</v>
       </c>
       <c r="Q112" t="s">
-        <v>338</v>
+        <v>509</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C113" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D113" t="s">
         <v>30</v>
@@ -9230,43 +9235,48 @@
         <v>20</v>
       </c>
       <c r="G113" t="s">
-        <v>487</v>
+        <v>21</v>
       </c>
       <c r="H113">
-        <v>100463</v>
+        <v>100509</v>
       </c>
       <c r="I113" t="s">
-        <v>273</v>
+        <v>512</v>
       </c>
       <c r="J113">
-        <v>100150</v>
+        <v>100490</v>
       </c>
       <c r="K113" t="s">
-        <v>515</v>
+        <v>274</v>
       </c>
       <c r="L113" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="M113" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="N113" s="2">
-        <v>43891</v>
+        <v>44504</v>
       </c>
       <c r="O113" s="2">
-        <v>45504</v>
-      </c>
-      <c r="Q113" s="4"/>
+        <v>73050</v>
+      </c>
+      <c r="P113" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C114" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D114" t="s">
         <v>30</v>
@@ -9278,46 +9288,43 @@
         <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>21</v>
+        <v>487</v>
       </c>
       <c r="H114">
-        <v>100510</v>
+        <v>100463</v>
       </c>
       <c r="I114" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="J114">
-        <v>100096</v>
+        <v>100150</v>
       </c>
       <c r="K114" t="s">
-        <v>321</v>
+        <v>515</v>
       </c>
       <c r="L114" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="M114" t="s">
-        <v>323</v>
+        <v>216</v>
       </c>
       <c r="N114" s="2">
-        <v>44505</v>
+        <v>43891</v>
       </c>
       <c r="O114" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P114" t="s">
-        <v>26</v>
+        <v>45504</v>
       </c>
       <c r="Q114" s="4"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C115" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D115" t="s">
         <v>30</v>
@@ -9329,45 +9336,46 @@
         <v>20</v>
       </c>
       <c r="G115" t="s">
-        <v>487</v>
+        <v>21</v>
       </c>
       <c r="H115">
-        <v>100593</v>
+        <v>100510</v>
       </c>
       <c r="I115" t="s">
-        <v>520</v>
+        <v>268</v>
       </c>
       <c r="J115">
-        <v>100090</v>
+        <v>100096</v>
       </c>
       <c r="K115" t="s">
-        <v>521</v>
+        <v>321</v>
       </c>
       <c r="L115" t="s">
-        <v>522</v>
+        <v>322</v>
       </c>
       <c r="M115" t="s">
-        <v>523</v>
+        <v>323</v>
       </c>
       <c r="N115" s="2">
-        <v>45110</v>
+        <v>44505</v>
       </c>
       <c r="O115" s="2">
-        <v>45657</v>
-      </c>
-      <c r="Q115" s="3" t="s">
-        <v>923</v>
-      </c>
+        <v>73050</v>
+      </c>
+      <c r="P115" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q115" s="4"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C116" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D116" t="s">
         <v>30</v>
@@ -9379,46 +9387,45 @@
         <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>21</v>
+        <v>487</v>
       </c>
       <c r="H116">
-        <v>100273</v>
+        <v>100593</v>
       </c>
       <c r="I116" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="J116">
-        <v>100007</v>
+        <v>100090</v>
       </c>
       <c r="K116" t="s">
-        <v>187</v>
+        <v>521</v>
       </c>
       <c r="L116" t="s">
-        <v>188</v>
+        <v>522</v>
       </c>
       <c r="M116" t="s">
-        <v>189</v>
+        <v>523</v>
       </c>
       <c r="N116" s="2">
-        <v>34335</v>
+        <v>45110</v>
       </c>
       <c r="O116" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P116" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q116" s="4"/>
+        <v>45657</v>
+      </c>
+      <c r="Q116" s="3" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C117" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D117" t="s">
         <v>30</v>
@@ -9433,42 +9440,43 @@
         <v>21</v>
       </c>
       <c r="H117">
-        <v>100490</v>
+        <v>100273</v>
       </c>
       <c r="I117" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J117">
-        <v>100076</v>
+        <v>100007</v>
       </c>
       <c r="K117" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="L117" t="s">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="M117" t="s">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c r="N117" s="2">
-        <v>44816</v>
+        <v>34335</v>
       </c>
       <c r="O117" s="2">
-        <v>45657</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>530</v>
-      </c>
+        <v>73050</v>
+      </c>
+      <c r="P117" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q117" s="4"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C118" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D118" t="s">
         <v>30</v>
@@ -9483,43 +9491,42 @@
         <v>21</v>
       </c>
       <c r="H118">
-        <v>100406</v>
+        <v>100490</v>
       </c>
       <c r="I118" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="J118">
-        <v>100007</v>
+        <v>100076</v>
       </c>
       <c r="K118" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="L118" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="M118" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="N118" s="2">
-        <v>42370</v>
+        <v>44816</v>
       </c>
       <c r="O118" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P118" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q118" s="4"/>
+        <v>45657</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C119" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D119" t="s">
         <v>30</v>
@@ -9534,42 +9541,43 @@
         <v>21</v>
       </c>
       <c r="H119">
-        <v>100463</v>
+        <v>100406</v>
       </c>
       <c r="I119" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J119">
-        <v>100150</v>
+        <v>100007</v>
       </c>
       <c r="K119" t="s">
-        <v>515</v>
+        <v>187</v>
       </c>
       <c r="L119" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="M119" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="N119" s="2">
-        <v>44713</v>
+        <v>42370</v>
       </c>
       <c r="O119" s="2">
-        <v>45657</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>537</v>
-      </c>
+        <v>73050</v>
+      </c>
+      <c r="P119" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q119" s="4"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C120" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D120" t="s">
         <v>30</v>
@@ -9587,7 +9595,7 @@
         <v>100463</v>
       </c>
       <c r="I120" t="s">
-        <v>273</v>
+        <v>536</v>
       </c>
       <c r="J120">
         <v>100150</v>
@@ -9602,22 +9610,24 @@
         <v>216</v>
       </c>
       <c r="N120" s="2">
-        <v>43891</v>
+        <v>44713</v>
       </c>
       <c r="O120" s="2">
-        <v>45504</v>
-      </c>
-      <c r="Q120" s="4"/>
+        <v>45657</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C121" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D121" t="s">
         <v>30</v>
@@ -9632,42 +9642,40 @@
         <v>21</v>
       </c>
       <c r="H121">
-        <v>100062</v>
+        <v>100463</v>
       </c>
       <c r="I121" t="s">
-        <v>542</v>
+        <v>273</v>
       </c>
       <c r="J121">
         <v>100150</v>
       </c>
       <c r="K121" t="s">
-        <v>42</v>
+        <v>515</v>
       </c>
       <c r="L121" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="M121" t="s">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="N121" s="2">
-        <v>37445</v>
+        <v>43891</v>
       </c>
       <c r="O121" s="2">
-        <v>73050</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>543</v>
-      </c>
+        <v>45504</v>
+      </c>
+      <c r="Q121" s="4"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C122" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D122" t="s">
         <v>30</v>
@@ -9682,45 +9690,42 @@
         <v>21</v>
       </c>
       <c r="H122">
-        <v>100641</v>
+        <v>100062</v>
       </c>
       <c r="I122" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J122">
-        <v>100464</v>
+        <v>100150</v>
       </c>
       <c r="K122" t="s">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="L122" t="s">
-        <v>393</v>
+        <v>43</v>
       </c>
       <c r="M122" t="s">
-        <v>394</v>
+        <v>44</v>
       </c>
       <c r="N122" s="2">
-        <v>45201</v>
+        <v>37445</v>
       </c>
       <c r="O122" s="2">
-        <v>45657</v>
-      </c>
-      <c r="P122" t="s">
-        <v>26</v>
+        <v>73050</v>
       </c>
       <c r="Q122" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C123" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D123" t="s">
         <v>30</v>
@@ -9735,45 +9740,45 @@
         <v>21</v>
       </c>
       <c r="H123">
-        <v>100585</v>
+        <v>100641</v>
       </c>
       <c r="I123" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="J123">
-        <v>100466</v>
+        <v>100464</v>
       </c>
       <c r="K123" t="s">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="L123" t="s">
-        <v>171</v>
+        <v>393</v>
       </c>
       <c r="M123" t="s">
-        <v>172</v>
+        <v>394</v>
       </c>
       <c r="N123" s="2">
-        <v>44440</v>
+        <v>45201</v>
       </c>
       <c r="O123" s="2">
-        <v>73050</v>
+        <v>45657</v>
       </c>
       <c r="P123" t="s">
         <v>26</v>
       </c>
       <c r="Q123" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C124" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D124" t="s">
         <v>30</v>
@@ -9788,25 +9793,25 @@
         <v>21</v>
       </c>
       <c r="H124">
-        <v>100595</v>
+        <v>100585</v>
       </c>
       <c r="I124" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="J124">
-        <v>100104</v>
+        <v>100466</v>
       </c>
       <c r="K124" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="L124" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="M124" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="N124" s="2">
-        <v>44872</v>
+        <v>44440</v>
       </c>
       <c r="O124" s="2">
         <v>73050</v>
@@ -9815,69 +9820,71 @@
         <v>26</v>
       </c>
       <c r="Q124" t="s">
-        <v>925</v>
+        <v>551</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>243</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>348</v>
+        <v>552</v>
       </c>
       <c r="C125" t="s">
-        <v>349</v>
+        <v>553</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E125" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G125" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H125">
-        <v>100330</v>
+        <v>100595</v>
       </c>
       <c r="I125" t="s">
-        <v>347</v>
+        <v>554</v>
       </c>
       <c r="J125">
-        <v>100457</v>
+        <v>100104</v>
       </c>
       <c r="K125" t="s">
-        <v>981</v>
+        <v>180</v>
       </c>
       <c r="L125" t="s">
-        <v>982</v>
-      </c>
-      <c r="M125" s="8" t="s">
-        <v>983</v>
-      </c>
-      <c r="N125" s="8">
-        <v>42064</v>
-      </c>
-      <c r="O125" s="8">
+        <v>181</v>
+      </c>
+      <c r="M125" t="s">
+        <v>182</v>
+      </c>
+      <c r="N125" s="2">
+        <v>44872</v>
+      </c>
+      <c r="O125" s="2">
         <v>73050</v>
       </c>
       <c r="P125" t="s">
         <v>26</v>
       </c>
-      <c r="Q125" s="7"/>
+      <c r="Q125" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>555</v>
+        <v>348</v>
       </c>
       <c r="C126" t="s">
-        <v>556</v>
+        <v>349</v>
       </c>
       <c r="D126" t="s">
         <v>18</v>
@@ -9886,57 +9893,55 @@
         <v>19</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G126" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H126">
-        <v>100059</v>
+        <v>100330</v>
       </c>
       <c r="I126" t="s">
-        <v>557</v>
+        <v>347</v>
       </c>
       <c r="J126">
-        <v>100082</v>
+        <v>100457</v>
       </c>
       <c r="K126" t="s">
-        <v>438</v>
+        <v>981</v>
       </c>
       <c r="L126" t="s">
-        <v>436</v>
-      </c>
-      <c r="M126" t="s">
-        <v>437</v>
-      </c>
-      <c r="N126" s="2">
-        <v>41791</v>
-      </c>
-      <c r="O126" s="2">
+        <v>982</v>
+      </c>
+      <c r="M126" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="N126" s="8">
+        <v>42064</v>
+      </c>
+      <c r="O126" s="8">
         <v>73050</v>
       </c>
       <c r="P126" t="s">
         <v>26</v>
       </c>
-      <c r="Q126" t="s">
-        <v>558</v>
-      </c>
+      <c r="Q126" s="7"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C127" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D127" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F127" t="s">
         <v>20</v>
@@ -9945,25 +9950,25 @@
         <v>21</v>
       </c>
       <c r="H127">
-        <v>100115</v>
+        <v>100059</v>
       </c>
       <c r="I127" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="J127">
-        <v>100096</v>
+        <v>100082</v>
       </c>
       <c r="K127" t="s">
-        <v>321</v>
+        <v>438</v>
       </c>
       <c r="L127" t="s">
-        <v>322</v>
+        <v>436</v>
       </c>
       <c r="M127" t="s">
-        <v>323</v>
+        <v>437</v>
       </c>
       <c r="N127" s="2">
-        <v>35796</v>
+        <v>41791</v>
       </c>
       <c r="O127" s="2">
         <v>73050</v>
@@ -9972,18 +9977,18 @@
         <v>26</v>
       </c>
       <c r="Q127" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C128" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D128" t="s">
         <v>30</v>
@@ -9992,51 +9997,51 @@
         <v>31</v>
       </c>
       <c r="F128" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="G128" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="H128">
-        <v>100688</v>
+        <v>100115</v>
       </c>
       <c r="I128" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J128">
-        <v>100439</v>
+        <v>100096</v>
       </c>
       <c r="K128" t="s">
-        <v>58</v>
+        <v>321</v>
       </c>
       <c r="L128" t="s">
-        <v>59</v>
+        <v>322</v>
       </c>
       <c r="M128" t="s">
-        <v>60</v>
+        <v>323</v>
       </c>
       <c r="N128" s="2">
-        <v>45352</v>
+        <v>35796</v>
       </c>
       <c r="O128" s="2">
-        <v>46081</v>
+        <v>73050</v>
       </c>
       <c r="P128" t="s">
         <v>26</v>
       </c>
       <c r="Q128" t="s">
-        <v>943</v>
+        <v>562</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C129" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D129" t="s">
         <v>30</v>
@@ -10045,81 +10050,81 @@
         <v>31</v>
       </c>
       <c r="F129" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="G129" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="H129">
-        <v>100378</v>
+        <v>100688</v>
       </c>
       <c r="I129" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J129">
-        <v>100345</v>
+        <v>100439</v>
       </c>
       <c r="K129" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="L129" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="M129" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="N129" s="2">
-        <v>42005</v>
+        <v>45352</v>
       </c>
       <c r="O129" s="2">
-        <v>73050</v>
+        <v>46081</v>
       </c>
       <c r="P129" t="s">
         <v>26</v>
       </c>
       <c r="Q129" t="s">
-        <v>569</v>
+        <v>943</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C130" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E130" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G130" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H130">
-        <v>100353</v>
+        <v>100378</v>
       </c>
       <c r="I130" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="J130">
-        <v>100490</v>
+        <v>100345</v>
       </c>
       <c r="K130" t="s">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="L130" t="s">
-        <v>275</v>
+        <v>174</v>
       </c>
       <c r="M130" t="s">
-        <v>276</v>
+        <v>175</v>
       </c>
       <c r="N130" s="2">
         <v>42005</v>
@@ -10131,230 +10136,230 @@
         <v>26</v>
       </c>
       <c r="Q130" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C131" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D131" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F131" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="G131" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="H131">
-        <v>100687</v>
+        <v>100353</v>
       </c>
       <c r="I131" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J131">
-        <v>100135</v>
+        <v>100490</v>
       </c>
       <c r="K131" t="s">
-        <v>116</v>
+        <v>274</v>
       </c>
       <c r="L131" t="s">
-        <v>117</v>
+        <v>275</v>
       </c>
       <c r="M131" t="s">
-        <v>118</v>
+        <v>276</v>
       </c>
       <c r="N131" s="2">
-        <v>45334</v>
+        <v>42005</v>
       </c>
       <c r="O131" s="2">
-        <v>45657</v>
+        <v>73050</v>
       </c>
       <c r="P131" t="s">
         <v>26</v>
       </c>
       <c r="Q131" t="s">
-        <v>944</v>
+        <v>573</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>522</v>
+        <v>574</v>
       </c>
       <c r="C132" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D132" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E132" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="G132" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="H132">
-        <v>100090</v>
+        <v>100687</v>
       </c>
       <c r="I132" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J132">
-        <v>100664</v>
+        <v>100135</v>
       </c>
       <c r="K132" t="s">
-        <v>579</v>
+        <v>116</v>
       </c>
       <c r="L132" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="M132" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="N132" s="2">
-        <v>41644</v>
+        <v>45334</v>
       </c>
       <c r="O132" s="2">
-        <v>73050</v>
+        <v>45657</v>
+      </c>
+      <c r="P132" t="s">
+        <v>26</v>
       </c>
       <c r="Q132" t="s">
-        <v>580</v>
+        <v>944</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>581</v>
+        <v>522</v>
       </c>
       <c r="C133" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="E133" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F133" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="G133" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="H133">
-        <v>100135</v>
+        <v>100090</v>
       </c>
       <c r="I133" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="J133">
-        <v>100135</v>
+        <v>100664</v>
       </c>
       <c r="K133" t="s">
-        <v>116</v>
+        <v>579</v>
       </c>
       <c r="L133" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="M133" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="N133" s="2">
-        <v>45404</v>
+        <v>41644</v>
       </c>
       <c r="O133" s="2">
-        <v>45473</v>
+        <v>73050</v>
       </c>
       <c r="Q133" t="s">
-        <v>945</v>
+        <v>580</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C134" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D134" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F134" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="G134" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="H134">
-        <v>100382</v>
+        <v>100135</v>
       </c>
       <c r="I134" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="J134">
-        <v>100076</v>
+        <v>100135</v>
       </c>
       <c r="K134" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="L134" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="M134" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="N134" s="2">
-        <v>42005</v>
+        <v>45404</v>
       </c>
       <c r="O134" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P134" t="s">
-        <v>26</v>
+        <v>45473</v>
       </c>
       <c r="Q134" t="s">
-        <v>587</v>
+        <v>945</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>504</v>
+        <v>584</v>
       </c>
       <c r="C135" t="s">
-        <v>505</v>
+        <v>585</v>
       </c>
       <c r="D135" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E135" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="F135" t="s">
         <v>55</v>
@@ -10363,86 +10368,86 @@
         <v>56</v>
       </c>
       <c r="H135">
-        <v>100303</v>
+        <v>100382</v>
       </c>
       <c r="I135" t="s">
-        <v>503</v>
+        <v>586</v>
       </c>
       <c r="J135">
-        <v>100343</v>
+        <v>100076</v>
       </c>
       <c r="K135" t="s">
-        <v>35</v>
-      </c>
-      <c r="M135" s="8"/>
-      <c r="N135" s="8"/>
-      <c r="O135" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="L135" t="s">
+        <v>86</v>
+      </c>
+      <c r="M135" t="s">
+        <v>87</v>
+      </c>
+      <c r="N135" s="2">
+        <v>42005</v>
+      </c>
+      <c r="O135" s="2">
+        <v>73050</v>
+      </c>
+      <c r="P135" t="s">
+        <v>26</v>
+      </c>
       <c r="Q135" t="s">
-        <v>987</v>
+        <v>587</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>588</v>
+        <v>504</v>
       </c>
       <c r="C136" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="D136" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="E136" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F136" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="G136" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="H136">
-        <v>100667</v>
+        <v>100303</v>
       </c>
       <c r="I136" t="s">
-        <v>590</v>
+        <v>503</v>
       </c>
       <c r="J136">
-        <v>100135</v>
+        <v>100343</v>
       </c>
       <c r="K136" t="s">
-        <v>116</v>
-      </c>
-      <c r="L136" t="s">
-        <v>117</v>
-      </c>
-      <c r="M136" t="s">
-        <v>118</v>
-      </c>
-      <c r="N136" s="2">
-        <v>45246</v>
-      </c>
-      <c r="O136" s="2">
-        <v>45596</v>
-      </c>
-      <c r="P136" t="s">
-        <v>26</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
       <c r="Q136" t="s">
-        <v>946</v>
+        <v>987</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C137" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D137" t="s">
         <v>18</v>
@@ -10451,96 +10456,98 @@
         <v>19</v>
       </c>
       <c r="F137" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="G137" t="s">
-        <v>593</v>
+        <v>105</v>
+      </c>
+      <c r="H137">
+        <v>100667</v>
       </c>
       <c r="I137" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="J137">
-        <v>100439</v>
+        <v>100135</v>
       </c>
       <c r="K137" t="s">
-        <v>390</v>
+        <v>116</v>
       </c>
       <c r="L137" t="s">
-        <v>391</v>
+        <v>117</v>
       </c>
       <c r="M137" t="s">
-        <v>392</v>
+        <v>118</v>
       </c>
       <c r="N137" s="2">
-        <v>45352</v>
+        <v>45246</v>
       </c>
       <c r="O137" s="2">
-        <v>46022</v>
+        <v>45596</v>
+      </c>
+      <c r="P137" t="s">
+        <v>26</v>
       </c>
       <c r="Q137" t="s">
-        <v>595</v>
+        <v>946</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C138" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D138" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E138" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F138" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="G138" t="s">
-        <v>56</v>
-      </c>
-      <c r="H138">
-        <v>100368</v>
+        <v>593</v>
       </c>
       <c r="I138" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="J138">
-        <v>100486</v>
+        <v>100439</v>
       </c>
       <c r="K138" t="s">
-        <v>289</v>
+        <v>390</v>
       </c>
       <c r="L138" t="s">
-        <v>290</v>
+        <v>391</v>
       </c>
       <c r="M138" t="s">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="N138" s="2">
-        <v>42005</v>
+        <v>45352</v>
       </c>
       <c r="O138" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P138" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q138" s="4"/>
+        <v>46022</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C139" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D139" t="s">
         <v>30</v>
@@ -10555,51 +10562,49 @@
         <v>56</v>
       </c>
       <c r="H139">
-        <v>100653</v>
+        <v>100368</v>
       </c>
       <c r="I139" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="J139">
-        <v>100082</v>
+        <v>100486</v>
       </c>
       <c r="K139" t="s">
-        <v>438</v>
+        <v>289</v>
       </c>
       <c r="L139" t="s">
-        <v>436</v>
+        <v>290</v>
       </c>
       <c r="M139" t="s">
-        <v>437</v>
+        <v>291</v>
       </c>
       <c r="N139" s="2">
-        <v>45245</v>
+        <v>42005</v>
       </c>
       <c r="O139" s="2">
-        <v>45610</v>
+        <v>73050</v>
       </c>
       <c r="P139" t="s">
         <v>26</v>
       </c>
-      <c r="Q139" t="s">
-        <v>173</v>
-      </c>
+      <c r="Q139" s="4"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C140" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E140" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F140" t="s">
         <v>55</v>
@@ -10608,78 +10613,78 @@
         <v>56</v>
       </c>
       <c r="H140">
-        <v>100350</v>
+        <v>100653</v>
       </c>
       <c r="I140" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="J140">
-        <v>100076</v>
+        <v>100082</v>
       </c>
       <c r="K140" t="s">
-        <v>85</v>
+        <v>438</v>
       </c>
       <c r="L140" t="s">
-        <v>86</v>
+        <v>436</v>
       </c>
       <c r="M140" t="s">
-        <v>87</v>
+        <v>437</v>
       </c>
       <c r="N140" s="2">
-        <v>42005</v>
+        <v>45245</v>
       </c>
       <c r="O140" s="2">
-        <v>73050</v>
+        <v>45610</v>
       </c>
       <c r="P140" t="s">
         <v>26</v>
       </c>
       <c r="Q140" t="s">
-        <v>605</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C141" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D141" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="E141" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H141">
-        <v>100460</v>
+        <v>100350</v>
       </c>
       <c r="I141" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="J141">
-        <v>100664</v>
+        <v>100076</v>
       </c>
       <c r="K141" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="L141" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="M141" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="N141" s="2">
-        <v>43115</v>
+        <v>42005</v>
       </c>
       <c r="O141" s="2">
         <v>73050</v>
@@ -10688,18 +10693,18 @@
         <v>26</v>
       </c>
       <c r="Q141" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>164</v>
+        <v>606</v>
       </c>
       <c r="C142" t="s">
-        <v>165</v>
+        <v>607</v>
       </c>
       <c r="D142" t="s">
         <v>150</v>
@@ -10714,25 +10719,25 @@
         <v>33</v>
       </c>
       <c r="H142">
-        <v>100046</v>
+        <v>100460</v>
       </c>
       <c r="I142" t="s">
-        <v>163</v>
+        <v>608</v>
       </c>
       <c r="J142">
-        <v>100462</v>
+        <v>100664</v>
       </c>
       <c r="K142" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="L142" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="M142" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="N142" s="2">
-        <v>35796</v>
+        <v>43115</v>
       </c>
       <c r="O142" s="2">
         <v>73050</v>
@@ -10741,51 +10746,51 @@
         <v>26</v>
       </c>
       <c r="Q142" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>164</v>
+      </c>
+      <c r="C143" t="s">
+        <v>165</v>
+      </c>
+      <c r="D143" t="s">
+        <v>150</v>
+      </c>
+      <c r="E143" t="s">
+        <v>151</v>
+      </c>
+      <c r="F143" t="s">
+        <v>32</v>
+      </c>
+      <c r="G143" t="s">
+        <v>33</v>
+      </c>
+      <c r="H143">
+        <v>100046</v>
+      </c>
+      <c r="I143" t="s">
+        <v>163</v>
+      </c>
+      <c r="J143">
+        <v>100462</v>
+      </c>
+      <c r="K143" t="s">
+        <v>135</v>
+      </c>
+      <c r="L143" t="s">
+        <v>136</v>
+      </c>
+      <c r="M143" t="s">
         <v>137</v>
       </c>
-      <c r="B143" t="s">
-        <v>611</v>
-      </c>
-      <c r="C143" t="s">
-        <v>612</v>
-      </c>
-      <c r="D143" t="s">
-        <v>30</v>
-      </c>
-      <c r="E143" t="s">
-        <v>31</v>
-      </c>
-      <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s">
-        <v>21</v>
-      </c>
-      <c r="H143">
-        <v>100020</v>
-      </c>
-      <c r="I143" t="s">
-        <v>613</v>
-      </c>
-      <c r="J143">
-        <v>100007</v>
-      </c>
-      <c r="K143" t="s">
-        <v>187</v>
-      </c>
-      <c r="L143" t="s">
-        <v>188</v>
-      </c>
-      <c r="M143" t="s">
-        <v>189</v>
-      </c>
       <c r="N143" s="2">
-        <v>35431</v>
+        <v>35796</v>
       </c>
       <c r="O143" s="2">
         <v>73050</v>
@@ -10794,71 +10799,71 @@
         <v>26</v>
       </c>
       <c r="Q143" t="s">
-        <v>947</v>
+        <v>610</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C144" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D144" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E144" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H144">
-        <v>100609</v>
+        <v>100020</v>
       </c>
       <c r="I144" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J144">
-        <v>100462</v>
+        <v>100007</v>
       </c>
       <c r="K144" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="L144" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="M144" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="N144" s="2">
-        <v>45139</v>
+        <v>35431</v>
       </c>
       <c r="O144" s="2">
-        <v>46234</v>
+        <v>73050</v>
       </c>
       <c r="P144" t="s">
         <v>26</v>
       </c>
       <c r="Q144" t="s">
-        <v>617</v>
+        <v>947</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>117</v>
+        <v>614</v>
       </c>
       <c r="C145" t="s">
-        <v>118</v>
+        <v>615</v>
       </c>
       <c r="D145" t="s">
         <v>150</v>
@@ -10867,101 +10872,104 @@
         <v>151</v>
       </c>
       <c r="F145" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>100135</v>
+        <v>100609</v>
       </c>
       <c r="I145" t="s">
-        <v>116</v>
+        <v>616</v>
       </c>
       <c r="J145">
-        <v>100106</v>
+        <v>100462</v>
       </c>
       <c r="K145" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="L145" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="M145" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="N145" s="2">
-        <v>42309</v>
+        <v>45139</v>
       </c>
       <c r="O145" s="2">
-        <v>73050</v>
+        <v>46234</v>
       </c>
       <c r="P145" t="s">
         <v>26</v>
       </c>
       <c r="Q145" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>619</v>
+        <v>117</v>
       </c>
       <c r="C146" t="s">
-        <v>620</v>
+        <v>118</v>
       </c>
       <c r="D146" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="H146">
-        <v>100433</v>
+        <v>100135</v>
       </c>
       <c r="I146" t="s">
-        <v>621</v>
+        <v>116</v>
       </c>
       <c r="J146">
-        <v>100433</v>
+        <v>100106</v>
       </c>
       <c r="K146" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="L146" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="M146" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="N146" s="2">
-        <v>44746</v>
+        <v>42309</v>
       </c>
       <c r="O146" s="2">
-        <v>45476</v>
+        <v>73050</v>
+      </c>
+      <c r="P146" t="s">
+        <v>26</v>
       </c>
       <c r="Q146" t="s">
-        <v>75</v>
+        <v>618</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C147" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D147" t="s">
         <v>30</v>
@@ -10970,46 +10978,48 @@
         <v>31</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H147">
-        <v>100329</v>
+        <v>100433</v>
       </c>
       <c r="I147" t="s">
-        <v>456</v>
+        <v>621</v>
       </c>
       <c r="J147">
-        <v>100483</v>
+        <v>100433</v>
       </c>
       <c r="K147" t="s">
-        <v>457</v>
+        <v>72</v>
       </c>
       <c r="L147" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="M147" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="N147" s="2">
-        <v>44851</v>
+        <v>44746</v>
       </c>
       <c r="O147" s="2">
-        <v>45535</v>
-      </c>
-      <c r="Q147" s="4"/>
+        <v>45476</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C148" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D148" t="s">
         <v>30</v>
@@ -11021,98 +11031,93 @@
         <v>20</v>
       </c>
       <c r="G148" t="s">
-        <v>487</v>
+        <v>21</v>
       </c>
       <c r="H148">
-        <v>100096</v>
+        <v>100329</v>
       </c>
       <c r="I148" t="s">
-        <v>626</v>
+        <v>456</v>
       </c>
       <c r="J148">
-        <v>100096</v>
+        <v>100483</v>
       </c>
       <c r="K148" t="s">
-        <v>321</v>
+        <v>457</v>
       </c>
       <c r="L148" t="s">
-        <v>322</v>
+        <v>50</v>
       </c>
       <c r="M148" t="s">
-        <v>323</v>
+        <v>51</v>
       </c>
       <c r="N148" s="2">
-        <v>44816</v>
+        <v>44851</v>
       </c>
       <c r="O148" s="2">
-        <v>45657</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>627</v>
-      </c>
+        <v>45535</v>
+      </c>
+      <c r="Q148" s="4"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>50</v>
+        <v>624</v>
       </c>
       <c r="C149" t="s">
-        <v>51</v>
+        <v>625</v>
       </c>
       <c r="D149" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E149" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="F149" t="s">
         <v>20</v>
       </c>
       <c r="G149" t="s">
-        <v>21</v>
+        <v>487</v>
       </c>
       <c r="H149">
-        <v>100329</v>
+        <v>100096</v>
       </c>
       <c r="I149" t="s">
-        <v>49</v>
+        <v>626</v>
       </c>
       <c r="J149">
-        <v>100664</v>
+        <v>100096</v>
       </c>
       <c r="K149" t="s">
-        <v>152</v>
+        <v>321</v>
       </c>
       <c r="L149" t="s">
-        <v>153</v>
+        <v>322</v>
       </c>
       <c r="M149" t="s">
-        <v>154</v>
+        <v>323</v>
       </c>
       <c r="N149" s="2">
-        <v>44417</v>
+        <v>44816</v>
       </c>
       <c r="O149" s="2">
-        <v>46232</v>
-      </c>
-      <c r="P149" t="s">
-        <v>26</v>
+        <v>45657</v>
       </c>
       <c r="Q149" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>263</v>
+        <v>50</v>
       </c>
       <c r="C150" t="s">
-        <v>264</v>
+        <v>51</v>
       </c>
       <c r="D150" t="s">
         <v>150</v>
@@ -11121,51 +11126,51 @@
         <v>151</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H150">
-        <v>100056</v>
+        <v>100329</v>
       </c>
       <c r="I150" t="s">
-        <v>262</v>
+        <v>49</v>
       </c>
       <c r="J150">
-        <v>100303</v>
+        <v>100664</v>
       </c>
       <c r="K150" t="s">
-        <v>503</v>
+        <v>152</v>
       </c>
       <c r="L150" t="s">
-        <v>504</v>
+        <v>153</v>
       </c>
       <c r="M150" t="s">
-        <v>505</v>
+        <v>154</v>
       </c>
       <c r="N150" s="2">
-        <v>41306</v>
+        <v>44417</v>
       </c>
       <c r="O150" s="2">
-        <v>73050</v>
+        <v>46232</v>
       </c>
       <c r="P150" t="s">
         <v>26</v>
       </c>
       <c r="Q150" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="C151" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="D151" t="s">
         <v>150</v>
@@ -11174,31 +11179,31 @@
         <v>151</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H151">
-        <v>100096</v>
+        <v>100056</v>
       </c>
       <c r="I151" t="s">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="J151">
-        <v>100076</v>
+        <v>100303</v>
       </c>
       <c r="K151" t="s">
-        <v>85</v>
+        <v>503</v>
       </c>
       <c r="L151" t="s">
-        <v>86</v>
+        <v>504</v>
       </c>
       <c r="M151" t="s">
-        <v>87</v>
+        <v>505</v>
       </c>
       <c r="N151" s="2">
-        <v>36418</v>
+        <v>41306</v>
       </c>
       <c r="O151" s="2">
         <v>73050</v>
@@ -11207,51 +11212,51 @@
         <v>26</v>
       </c>
       <c r="Q151" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>631</v>
+        <v>322</v>
       </c>
       <c r="C152" t="s">
-        <v>632</v>
+        <v>323</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="E152" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F152" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G152" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H152">
-        <v>100352</v>
+        <v>100096</v>
       </c>
       <c r="I152" t="s">
-        <v>633</v>
+        <v>321</v>
       </c>
       <c r="J152">
-        <v>100439</v>
+        <v>100076</v>
       </c>
       <c r="K152" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L152" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="M152" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N152" s="2">
-        <v>42005</v>
+        <v>36418</v>
       </c>
       <c r="O152" s="2">
         <v>73050</v>
@@ -11260,51 +11265,51 @@
         <v>26</v>
       </c>
       <c r="Q152" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C153" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D153" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E153" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G153" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H153">
-        <v>100103</v>
+        <v>100352</v>
       </c>
       <c r="I153" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="J153">
-        <v>100007</v>
+        <v>100439</v>
       </c>
       <c r="K153" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="L153" t="s">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="M153" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="N153" s="2">
-        <v>34227</v>
+        <v>42005</v>
       </c>
       <c r="O153" s="2">
         <v>73050</v>
@@ -11312,17 +11317,19 @@
       <c r="P153" t="s">
         <v>26</v>
       </c>
-      <c r="Q153" s="4"/>
+      <c r="Q153" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C154" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D154" t="s">
         <v>30</v>
@@ -11337,25 +11344,25 @@
         <v>21</v>
       </c>
       <c r="H154">
-        <v>100519</v>
+        <v>100103</v>
       </c>
       <c r="I154" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="J154">
-        <v>100490</v>
+        <v>100007</v>
       </c>
       <c r="K154" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="L154" t="s">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="M154" t="s">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c r="N154" s="2">
-        <v>44505</v>
+        <v>34227</v>
       </c>
       <c r="O154" s="2">
         <v>73050</v>
@@ -11367,13 +11374,13 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C155" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D155" t="s">
         <v>30</v>
@@ -11388,25 +11395,25 @@
         <v>21</v>
       </c>
       <c r="H155">
-        <v>100043</v>
+        <v>100519</v>
       </c>
       <c r="I155" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J155">
-        <v>100007</v>
+        <v>100490</v>
       </c>
       <c r="K155" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="L155" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="M155" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="N155" s="2">
-        <v>35582</v>
+        <v>44505</v>
       </c>
       <c r="O155" s="2">
         <v>73050</v>
@@ -11418,46 +11425,46 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C156" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E156" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H156">
-        <v>100199</v>
+        <v>100043</v>
       </c>
       <c r="I156" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="J156">
-        <v>100082</v>
+        <v>100007</v>
       </c>
       <c r="K156" t="s">
-        <v>438</v>
+        <v>187</v>
       </c>
       <c r="L156" t="s">
-        <v>436</v>
+        <v>188</v>
       </c>
       <c r="M156" t="s">
-        <v>437</v>
+        <v>189</v>
       </c>
       <c r="N156" s="2">
-        <v>40210</v>
+        <v>35582</v>
       </c>
       <c r="O156" s="2">
         <v>73050</v>
@@ -11465,25 +11472,23 @@
       <c r="P156" t="s">
         <v>26</v>
       </c>
-      <c r="Q156" t="s">
-        <v>644</v>
-      </c>
+      <c r="Q156" s="4"/>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>36</v>
+        <v>645</v>
       </c>
       <c r="C157" t="s">
-        <v>37</v>
+        <v>646</v>
       </c>
       <c r="D157" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="E157" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F157" t="s">
         <v>32</v>
@@ -11492,45 +11497,45 @@
         <v>33</v>
       </c>
       <c r="H157">
-        <v>100343</v>
+        <v>100199</v>
       </c>
       <c r="I157" t="s">
-        <v>35</v>
+        <v>647</v>
       </c>
       <c r="J157">
-        <v>100303</v>
+        <v>100082</v>
       </c>
       <c r="K157" t="s">
-        <v>503</v>
+        <v>438</v>
       </c>
       <c r="L157" t="s">
-        <v>504</v>
+        <v>436</v>
       </c>
       <c r="M157" t="s">
-        <v>505</v>
-      </c>
-      <c r="N157" s="8">
-        <v>42064</v>
-      </c>
-      <c r="O157" s="8">
+        <v>437</v>
+      </c>
+      <c r="N157" s="2">
+        <v>40210</v>
+      </c>
+      <c r="O157" s="2">
         <v>73050</v>
       </c>
       <c r="P157" t="s">
         <v>26</v>
       </c>
       <c r="Q157" t="s">
-        <v>986</v>
+        <v>644</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>648</v>
+        <v>36</v>
       </c>
       <c r="C158" t="s">
-        <v>649</v>
+        <v>37</v>
       </c>
       <c r="D158" t="s">
         <v>150</v>
@@ -11539,101 +11544,104 @@
         <v>151</v>
       </c>
       <c r="F158" t="s">
-        <v>650</v>
+        <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>651</v>
+        <v>33</v>
       </c>
       <c r="H158">
-        <v>100013</v>
+        <v>100343</v>
       </c>
       <c r="I158" t="s">
-        <v>652</v>
+        <v>35</v>
       </c>
       <c r="J158">
-        <v>100329</v>
+        <v>100303</v>
       </c>
       <c r="K158" t="s">
-        <v>49</v>
+        <v>503</v>
       </c>
       <c r="L158" t="s">
-        <v>50</v>
+        <v>504</v>
       </c>
       <c r="M158" t="s">
-        <v>51</v>
-      </c>
-      <c r="N158" s="2">
-        <v>35796</v>
-      </c>
-      <c r="O158" s="2">
+        <v>505</v>
+      </c>
+      <c r="N158" s="8">
+        <v>42064</v>
+      </c>
+      <c r="O158" s="8">
         <v>73050</v>
       </c>
       <c r="P158" t="s">
         <v>26</v>
       </c>
       <c r="Q158" t="s">
-        <v>653</v>
+        <v>986</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C159" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D159" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E159" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
+        <v>650</v>
       </c>
       <c r="G159" t="s">
-        <v>21</v>
+        <v>651</v>
       </c>
       <c r="H159">
-        <v>100096</v>
+        <v>100013</v>
       </c>
       <c r="I159" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J159">
-        <v>100096</v>
+        <v>100329</v>
       </c>
       <c r="K159" t="s">
-        <v>321</v>
+        <v>49</v>
       </c>
       <c r="L159" t="s">
-        <v>322</v>
+        <v>50</v>
       </c>
       <c r="M159" t="s">
-        <v>323</v>
+        <v>51</v>
       </c>
       <c r="N159" s="2">
-        <v>44846</v>
+        <v>35796</v>
       </c>
       <c r="O159" s="2">
-        <v>45657</v>
+        <v>73050</v>
+      </c>
+      <c r="P159" t="s">
+        <v>26</v>
       </c>
       <c r="Q159" t="s">
-        <v>926</v>
+        <v>653</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C160" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D160" t="s">
         <v>30</v>
@@ -11648,43 +11656,42 @@
         <v>21</v>
       </c>
       <c r="H160">
-        <v>100276</v>
+        <v>100096</v>
       </c>
       <c r="I160" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="J160">
-        <v>100007</v>
+        <v>100096</v>
       </c>
       <c r="K160" t="s">
-        <v>187</v>
+        <v>321</v>
       </c>
       <c r="L160" t="s">
-        <v>188</v>
+        <v>322</v>
       </c>
       <c r="M160" t="s">
-        <v>189</v>
+        <v>323</v>
       </c>
       <c r="N160" s="2">
-        <v>35916</v>
+        <v>44846</v>
       </c>
       <c r="O160" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P160" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q160" s="4"/>
+        <v>45657</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C161" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D161" t="s">
         <v>30</v>
@@ -11699,10 +11706,10 @@
         <v>21</v>
       </c>
       <c r="H161">
-        <v>100162</v>
+        <v>100276</v>
       </c>
       <c r="I161" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="J161">
         <v>100007</v>
@@ -11717,7 +11724,7 @@
         <v>189</v>
       </c>
       <c r="N161" s="2">
-        <v>36739</v>
+        <v>35916</v>
       </c>
       <c r="O161" s="2">
         <v>73050</v>
@@ -11725,25 +11732,23 @@
       <c r="P161" t="s">
         <v>26</v>
       </c>
-      <c r="Q161" t="s">
-        <v>948</v>
-      </c>
+      <c r="Q161" s="4"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C162" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D162" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E162" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F162" t="s">
         <v>20</v>
@@ -11752,48 +11757,51 @@
         <v>21</v>
       </c>
       <c r="H162">
-        <v>100096</v>
+        <v>100162</v>
       </c>
       <c r="I162" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="J162">
-        <v>100096</v>
+        <v>100007</v>
       </c>
       <c r="K162" t="s">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="L162" t="s">
-        <v>322</v>
+        <v>188</v>
       </c>
       <c r="M162" t="s">
-        <v>323</v>
+        <v>189</v>
       </c>
       <c r="N162" s="2">
-        <v>45082</v>
+        <v>36739</v>
       </c>
       <c r="O162" s="2">
-        <v>45583</v>
+        <v>73050</v>
+      </c>
+      <c r="P162" t="s">
+        <v>26</v>
       </c>
       <c r="Q162" t="s">
-        <v>666</v>
+        <v>948</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C163" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D163" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E163" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F163" t="s">
         <v>20</v>
@@ -11802,75 +11810,75 @@
         <v>21</v>
       </c>
       <c r="H163">
-        <v>100271</v>
+        <v>100096</v>
       </c>
       <c r="I163" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J163">
-        <v>100007</v>
+        <v>100096</v>
       </c>
       <c r="K163" t="s">
-        <v>187</v>
+        <v>321</v>
       </c>
       <c r="L163" t="s">
-        <v>188</v>
+        <v>322</v>
       </c>
       <c r="M163" t="s">
-        <v>189</v>
+        <v>323</v>
       </c>
       <c r="N163" s="2">
-        <v>34095</v>
+        <v>45082</v>
       </c>
       <c r="O163" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P163" t="s">
-        <v>26</v>
+        <v>45583</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>136</v>
+        <v>667</v>
       </c>
       <c r="C164" t="s">
-        <v>137</v>
+        <v>668</v>
       </c>
       <c r="D164" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E164" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H164">
-        <v>100462</v>
+        <v>100271</v>
       </c>
       <c r="I164" t="s">
-        <v>135</v>
+        <v>669</v>
       </c>
       <c r="J164">
-        <v>100303</v>
+        <v>100007</v>
       </c>
       <c r="K164" t="s">
-        <v>503</v>
+        <v>187</v>
       </c>
       <c r="L164" t="s">
-        <v>504</v>
+        <v>188</v>
       </c>
       <c r="M164" t="s">
-        <v>505</v>
+        <v>189</v>
       </c>
       <c r="N164" s="2">
-        <v>43101</v>
+        <v>34095</v>
       </c>
       <c r="O164" s="2">
         <v>73050</v>
@@ -11878,52 +11886,49 @@
       <c r="P164" t="s">
         <v>26</v>
       </c>
-      <c r="Q164" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>670</v>
+        <v>136</v>
       </c>
       <c r="C165" t="s">
-        <v>671</v>
+        <v>137</v>
       </c>
       <c r="D165" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E165" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F165" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H165">
-        <v>100547</v>
+        <v>100462</v>
       </c>
       <c r="I165" t="s">
-        <v>445</v>
+        <v>135</v>
       </c>
       <c r="J165">
-        <v>100490</v>
+        <v>100303</v>
       </c>
       <c r="K165" t="s">
-        <v>274</v>
+        <v>503</v>
       </c>
       <c r="L165" t="s">
-        <v>275</v>
+        <v>504</v>
       </c>
       <c r="M165" t="s">
-        <v>276</v>
+        <v>505</v>
       </c>
       <c r="N165" s="2">
-        <v>44197</v>
+        <v>43101</v>
       </c>
       <c r="O165" s="2">
         <v>73050</v>
@@ -11932,51 +11937,51 @@
         <v>26</v>
       </c>
       <c r="Q165" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C166" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D166" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E166" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H166">
-        <v>100537</v>
+        <v>100547</v>
       </c>
       <c r="I166" t="s">
-        <v>674</v>
+        <v>445</v>
       </c>
       <c r="J166">
-        <v>100683</v>
+        <v>100490</v>
       </c>
       <c r="K166" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="L166" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="M166" t="s">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="N166" s="2">
-        <v>44511</v>
+        <v>44197</v>
       </c>
       <c r="O166" s="2">
         <v>73050</v>
@@ -11985,51 +11990,51 @@
         <v>26</v>
       </c>
       <c r="Q166" t="s">
-        <v>675</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C167" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D167" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E167" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F167" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H167">
-        <v>100269</v>
+        <v>100537</v>
       </c>
       <c r="I167" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J167">
-        <v>100007</v>
+        <v>100683</v>
       </c>
       <c r="K167" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="L167" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="M167" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="N167" s="2">
-        <v>34090</v>
+        <v>44511</v>
       </c>
       <c r="O167" s="2">
         <v>73050</v>
@@ -12037,17 +12042,19 @@
       <c r="P167" t="s">
         <v>26</v>
       </c>
-      <c r="Q167" s="4"/>
+      <c r="Q167" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C168" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D168" t="s">
         <v>30</v>
@@ -12062,25 +12069,25 @@
         <v>21</v>
       </c>
       <c r="H168">
-        <v>100393</v>
+        <v>100269</v>
       </c>
       <c r="I168" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="J168">
-        <v>100150</v>
+        <v>100007</v>
       </c>
       <c r="K168" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="L168" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="M168" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="N168" s="2">
-        <v>42310</v>
+        <v>34090</v>
       </c>
       <c r="O168" s="2">
         <v>73050</v>
@@ -12092,13 +12099,13 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C169" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D169" t="s">
         <v>30</v>
@@ -12113,40 +12120,43 @@
         <v>21</v>
       </c>
       <c r="H169">
-        <v>100056</v>
+        <v>100393</v>
       </c>
       <c r="I169" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="J169">
-        <v>100056</v>
+        <v>100150</v>
       </c>
       <c r="K169" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="L169" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="M169" t="s">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="N169" s="2">
-        <v>45051</v>
+        <v>42310</v>
       </c>
       <c r="O169" s="2">
-        <v>45778</v>
+        <v>73050</v>
+      </c>
+      <c r="P169" t="s">
+        <v>26</v>
       </c>
       <c r="Q169" s="4"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C170" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D170" t="s">
         <v>30</v>
@@ -12155,84 +12165,79 @@
         <v>31</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G170" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H170">
-        <v>100469</v>
+        <v>100056</v>
       </c>
       <c r="I170" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="J170">
-        <v>100433</v>
+        <v>100056</v>
       </c>
       <c r="K170" t="s">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="L170" t="s">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="M170" t="s">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="N170" s="2">
-        <v>44013</v>
+        <v>45051</v>
       </c>
       <c r="O170" s="2">
-        <v>46022</v>
-      </c>
-      <c r="P170" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>988</v>
-      </c>
+        <v>45778</v>
+      </c>
+      <c r="Q170" s="4"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C171" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D171" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E171" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F171" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H171">
-        <v>100646</v>
+        <v>100469</v>
       </c>
       <c r="I171" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="J171">
-        <v>100439</v>
+        <v>100433</v>
       </c>
       <c r="K171" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="L171" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="M171" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="N171" s="2">
-        <v>45348</v>
+        <v>44013</v>
       </c>
       <c r="O171" s="2">
         <v>46022</v>
@@ -12241,24 +12246,24 @@
         <v>26</v>
       </c>
       <c r="Q171" t="s">
-        <v>949</v>
+        <v>988</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C172" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D172" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="E172" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F172" t="s">
         <v>55</v>
@@ -12267,248 +12272,248 @@
         <v>56</v>
       </c>
       <c r="H172">
-        <v>100090</v>
+        <v>100646</v>
       </c>
       <c r="I172" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="J172">
-        <v>100664</v>
+        <v>100439</v>
       </c>
       <c r="K172" t="s">
-        <v>579</v>
+        <v>58</v>
       </c>
       <c r="L172" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="M172" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N172" s="2">
-        <v>45232</v>
+        <v>45348</v>
       </c>
       <c r="O172" s="2">
-        <v>45657</v>
+        <v>46022</v>
+      </c>
+      <c r="P172" t="s">
+        <v>26</v>
       </c>
       <c r="Q172" t="s">
-        <v>695</v>
+        <v>949</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C173" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D173" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="E173" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F173" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="G173" t="s">
-        <v>698</v>
+        <v>56</v>
       </c>
       <c r="H173">
-        <v>100555</v>
+        <v>100090</v>
       </c>
       <c r="I173" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="J173">
-        <v>100555</v>
+        <v>100664</v>
       </c>
       <c r="K173" t="s">
-        <v>700</v>
+        <v>579</v>
       </c>
       <c r="L173" t="s">
-        <v>701</v>
+        <v>86</v>
       </c>
       <c r="M173" t="s">
-        <v>702</v>
+        <v>87</v>
       </c>
       <c r="N173" s="2">
-        <v>44732</v>
+        <v>45232</v>
       </c>
       <c r="O173" s="2">
-        <v>45473</v>
+        <v>45657</v>
       </c>
       <c r="Q173" t="s">
-        <v>950</v>
+        <v>695</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="C174" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="D174" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E174" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F174" t="s">
-        <v>706</v>
+        <v>122</v>
       </c>
       <c r="G174" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="H174">
-        <v>100554</v>
+        <v>100555</v>
       </c>
       <c r="I174" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="J174">
-        <v>100076</v>
+        <v>100555</v>
       </c>
       <c r="K174" t="s">
-        <v>85</v>
+        <v>700</v>
       </c>
       <c r="L174" t="s">
-        <v>86</v>
+        <v>701</v>
       </c>
       <c r="M174" t="s">
-        <v>87</v>
+        <v>702</v>
       </c>
       <c r="N174" s="2">
-        <v>43466</v>
+        <v>44732</v>
       </c>
       <c r="O174" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P174" t="s">
-        <v>26</v>
+        <v>45473</v>
       </c>
       <c r="Q174" t="s">
-        <v>709</v>
+        <v>950</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C175" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D175" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E175" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F175" t="s">
-        <v>122</v>
+        <v>706</v>
       </c>
       <c r="G175" t="s">
-        <v>127</v>
+        <v>707</v>
       </c>
       <c r="H175">
-        <v>100555</v>
+        <v>100554</v>
       </c>
       <c r="I175" t="s">
-        <v>576</v>
+        <v>708</v>
       </c>
       <c r="J175">
-        <v>100150</v>
+        <v>100076</v>
       </c>
       <c r="K175" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="L175" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="M175" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="N175" s="2">
-        <v>44837</v>
+        <v>43466</v>
       </c>
       <c r="O175" s="2">
-        <v>46022</v>
+        <v>73050</v>
+      </c>
+      <c r="P175" t="s">
+        <v>26</v>
       </c>
       <c r="Q175" t="s">
-        <v>951</v>
+        <v>709</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C176" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D176" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E176" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F176" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G176" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H176">
-        <v>100616</v>
+        <v>100555</v>
       </c>
       <c r="I176" t="s">
-        <v>714</v>
+        <v>576</v>
       </c>
       <c r="J176">
-        <v>100615</v>
+        <v>100150</v>
       </c>
       <c r="K176" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="L176" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="M176" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="N176" s="2">
-        <v>45159</v>
+        <v>44837</v>
       </c>
       <c r="O176" s="2">
-        <v>45524</v>
-      </c>
-      <c r="P176" t="s">
-        <v>26</v>
+        <v>46022</v>
       </c>
       <c r="Q176" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C177" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D177" t="s">
         <v>30</v>
@@ -12523,10 +12528,10 @@
         <v>105</v>
       </c>
       <c r="H177">
-        <v>100651</v>
+        <v>100616</v>
       </c>
       <c r="I177" t="s">
-        <v>106</v>
+        <v>714</v>
       </c>
       <c r="J177">
         <v>100615</v>
@@ -12538,30 +12543,30 @@
         <v>146</v>
       </c>
       <c r="M177" t="s">
-        <v>717</v>
+        <v>147</v>
       </c>
       <c r="N177" s="2">
-        <v>44230</v>
+        <v>45159</v>
       </c>
       <c r="O177" s="2">
-        <v>73050</v>
+        <v>45524</v>
       </c>
       <c r="P177" t="s">
         <v>26</v>
       </c>
       <c r="Q177" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C178" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D178" t="s">
         <v>30</v>
@@ -12576,45 +12581,45 @@
         <v>105</v>
       </c>
       <c r="H178">
-        <v>100685</v>
+        <v>100651</v>
       </c>
       <c r="I178" t="s">
-        <v>576</v>
+        <v>106</v>
       </c>
       <c r="J178">
-        <v>100135</v>
+        <v>100615</v>
       </c>
       <c r="K178" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="L178" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="M178" t="s">
-        <v>118</v>
+        <v>717</v>
       </c>
       <c r="N178" s="2">
-        <v>45334</v>
+        <v>44230</v>
       </c>
       <c r="O178" s="2">
-        <v>45657</v>
+        <v>73050</v>
       </c>
       <c r="P178" t="s">
         <v>26</v>
       </c>
       <c r="Q178" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C179" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D179" t="s">
         <v>30</v>
@@ -12626,96 +12631,96 @@
         <v>104</v>
       </c>
       <c r="G179" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="H179">
-        <v>100651</v>
+        <v>100685</v>
       </c>
       <c r="I179" t="s">
-        <v>106</v>
+        <v>576</v>
       </c>
       <c r="J179">
         <v>100135</v>
       </c>
       <c r="K179" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L179" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M179" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="N179" s="2">
-        <v>45017</v>
+        <v>45334</v>
       </c>
       <c r="O179" s="2">
         <v>45657</v>
       </c>
-      <c r="Q179" s="4"/>
+      <c r="P179" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C180" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D180" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E180" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F180" t="s">
         <v>104</v>
       </c>
       <c r="G180" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H180">
-        <v>100644</v>
+        <v>100651</v>
       </c>
       <c r="I180" t="s">
-        <v>724</v>
+        <v>106</v>
       </c>
       <c r="J180">
         <v>100135</v>
       </c>
       <c r="K180" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="L180" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M180" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="N180" s="2">
-        <v>45239</v>
+        <v>45017</v>
       </c>
       <c r="O180" s="2">
-        <v>45604</v>
-      </c>
-      <c r="P180" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q180" t="s">
-        <v>955</v>
-      </c>
+        <v>45657</v>
+      </c>
+      <c r="Q180" s="4"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C181" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D181" t="s">
         <v>18</v>
@@ -12730,10 +12735,10 @@
         <v>105</v>
       </c>
       <c r="H181">
-        <v>100692</v>
+        <v>100644</v>
       </c>
       <c r="I181" t="s">
-        <v>576</v>
+        <v>724</v>
       </c>
       <c r="J181">
         <v>100135</v>
@@ -12748,27 +12753,27 @@
         <v>118</v>
       </c>
       <c r="N181" s="2">
-        <v>45340</v>
+        <v>45239</v>
       </c>
       <c r="O181" s="2">
-        <v>45657</v>
+        <v>45604</v>
       </c>
       <c r="P181" t="s">
         <v>26</v>
       </c>
       <c r="Q181" t="s">
-        <v>725</v>
+        <v>955</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C182" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D182" t="s">
         <v>18</v>
@@ -12783,10 +12788,10 @@
         <v>105</v>
       </c>
       <c r="H182">
-        <v>100135</v>
+        <v>100692</v>
       </c>
       <c r="I182" t="s">
-        <v>730</v>
+        <v>576</v>
       </c>
       <c r="J182">
         <v>100135</v>
@@ -12801,30 +12806,33 @@
         <v>118</v>
       </c>
       <c r="N182" s="2">
-        <v>44634</v>
+        <v>45340</v>
       </c>
       <c r="O182" s="2">
-        <v>45473</v>
+        <v>45657</v>
+      </c>
+      <c r="P182" t="s">
+        <v>26</v>
       </c>
       <c r="Q182" t="s">
-        <v>956</v>
+        <v>725</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C183" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D183" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E183" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F183" t="s">
         <v>104</v>
@@ -12833,45 +12841,42 @@
         <v>105</v>
       </c>
       <c r="H183">
-        <v>100651</v>
+        <v>100135</v>
       </c>
       <c r="I183" t="s">
-        <v>106</v>
+        <v>730</v>
       </c>
       <c r="J183">
-        <v>100624</v>
+        <v>100135</v>
       </c>
       <c r="K183" t="s">
-        <v>335</v>
+        <v>116</v>
       </c>
       <c r="L183" t="s">
-        <v>336</v>
+        <v>117</v>
       </c>
       <c r="M183" t="s">
-        <v>337</v>
+        <v>118</v>
       </c>
       <c r="N183" s="2">
-        <v>45201</v>
+        <v>44634</v>
       </c>
       <c r="O183" s="2">
-        <v>45566</v>
-      </c>
-      <c r="P183" t="s">
-        <v>26</v>
+        <v>45473</v>
       </c>
       <c r="Q183" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>336</v>
+        <v>731</v>
       </c>
       <c r="C184" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D184" t="s">
         <v>30</v>
@@ -12886,45 +12891,45 @@
         <v>105</v>
       </c>
       <c r="H184">
+        <v>100651</v>
+      </c>
+      <c r="I184" t="s">
+        <v>106</v>
+      </c>
+      <c r="J184">
         <v>100624</v>
       </c>
-      <c r="I184" t="s">
+      <c r="K184" t="s">
         <v>335</v>
       </c>
-      <c r="J184">
-        <v>100135</v>
-      </c>
-      <c r="K184" t="s">
-        <v>116</v>
-      </c>
       <c r="L184" t="s">
-        <v>117</v>
+        <v>336</v>
       </c>
       <c r="M184" t="s">
-        <v>118</v>
+        <v>337</v>
       </c>
       <c r="N184" s="2">
-        <v>45200</v>
+        <v>45201</v>
       </c>
       <c r="O184" s="2">
-        <v>45567</v>
+        <v>45566</v>
       </c>
       <c r="P184" t="s">
         <v>26</v>
       </c>
       <c r="Q184" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>108</v>
+        <v>336</v>
       </c>
       <c r="C185" t="s">
-        <v>109</v>
+        <v>733</v>
       </c>
       <c r="D185" t="s">
         <v>30</v>
@@ -12939,10 +12944,10 @@
         <v>105</v>
       </c>
       <c r="H185">
-        <v>100558</v>
+        <v>100624</v>
       </c>
       <c r="I185" t="s">
-        <v>107</v>
+        <v>335</v>
       </c>
       <c r="J185">
         <v>100135</v>
@@ -12957,27 +12962,27 @@
         <v>118</v>
       </c>
       <c r="N185" s="2">
-        <v>43497</v>
+        <v>45200</v>
       </c>
       <c r="O185" s="2">
-        <v>73050</v>
+        <v>45567</v>
       </c>
       <c r="P185" t="s">
         <v>26</v>
       </c>
       <c r="Q185" t="s">
-        <v>110</v>
+        <v>958</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>734</v>
+        <v>108</v>
       </c>
       <c r="C186" t="s">
-        <v>735</v>
+        <v>109</v>
       </c>
       <c r="D186" t="s">
         <v>30</v>
@@ -12992,25 +12997,25 @@
         <v>105</v>
       </c>
       <c r="H186">
-        <v>100651</v>
+        <v>100558</v>
       </c>
       <c r="I186" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J186">
         <v>100135</v>
       </c>
       <c r="K186" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L186" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M186" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="N186" s="2">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="O186" s="2">
         <v>73050</v>
@@ -13018,23 +13023,25 @@
       <c r="P186" t="s">
         <v>26</v>
       </c>
-      <c r="Q186" s="4"/>
+      <c r="Q186" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C187" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D187" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E187" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F187" t="s">
         <v>104</v>
@@ -13043,45 +13050,43 @@
         <v>105</v>
       </c>
       <c r="H187">
-        <v>100668</v>
+        <v>100651</v>
       </c>
       <c r="I187" t="s">
-        <v>421</v>
+        <v>106</v>
       </c>
       <c r="J187">
         <v>100135</v>
       </c>
       <c r="K187" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="L187" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M187" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="N187" s="2">
-        <v>45250</v>
+        <v>43466</v>
       </c>
       <c r="O187" s="2">
-        <v>45626</v>
+        <v>73050</v>
       </c>
       <c r="P187" t="s">
         <v>26</v>
       </c>
-      <c r="Q187" t="s">
-        <v>959</v>
-      </c>
+      <c r="Q187" s="4"/>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C188" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D188" t="s">
         <v>18</v>
@@ -13093,13 +13098,13 @@
         <v>104</v>
       </c>
       <c r="G188" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="H188">
-        <v>100135</v>
+        <v>100668</v>
       </c>
       <c r="I188" t="s">
-        <v>741</v>
+        <v>421</v>
       </c>
       <c r="J188">
         <v>100135</v>
@@ -13114,30 +13119,33 @@
         <v>118</v>
       </c>
       <c r="N188" s="2">
-        <v>44613</v>
+        <v>45250</v>
       </c>
       <c r="O188" s="2">
-        <v>45473</v>
+        <v>45626</v>
+      </c>
+      <c r="P188" t="s">
+        <v>26</v>
       </c>
       <c r="Q188" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C189" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D189" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E189" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F189" t="s">
         <v>104</v>
@@ -13146,263 +13154,260 @@
         <v>127</v>
       </c>
       <c r="H189">
-        <v>100651</v>
+        <v>100135</v>
       </c>
       <c r="I189" t="s">
-        <v>106</v>
+        <v>741</v>
       </c>
       <c r="J189">
-        <v>100623</v>
+        <v>100135</v>
       </c>
       <c r="K189" t="s">
-        <v>335</v>
+        <v>116</v>
       </c>
       <c r="L189" t="s">
-        <v>744</v>
+        <v>117</v>
       </c>
       <c r="M189" t="s">
-        <v>745</v>
+        <v>118</v>
       </c>
       <c r="N189" s="2">
-        <v>44697</v>
+        <v>44613</v>
       </c>
       <c r="O189" s="2">
         <v>45473</v>
       </c>
       <c r="Q189" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C190" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D190" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E190" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F190" t="s">
         <v>104</v>
       </c>
       <c r="G190" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H190">
-        <v>100559</v>
+        <v>100651</v>
       </c>
       <c r="I190" t="s">
-        <v>748</v>
+        <v>106</v>
       </c>
       <c r="J190">
-        <v>100076</v>
+        <v>100623</v>
       </c>
       <c r="K190" t="s">
-        <v>85</v>
+        <v>335</v>
       </c>
       <c r="L190" t="s">
-        <v>86</v>
+        <v>744</v>
       </c>
       <c r="M190" t="s">
-        <v>87</v>
+        <v>745</v>
       </c>
       <c r="N190" s="2">
-        <v>43009</v>
+        <v>44697</v>
       </c>
       <c r="O190" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P190" t="s">
-        <v>26</v>
+        <v>45473</v>
       </c>
       <c r="Q190" t="s">
-        <v>738</v>
+        <v>961</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C191" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D191" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E191" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F191" t="s">
         <v>104</v>
       </c>
       <c r="G191" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="H191">
-        <v>100135</v>
+        <v>100559</v>
       </c>
       <c r="I191" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="J191">
-        <v>100135</v>
+        <v>100076</v>
       </c>
       <c r="K191" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="L191" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="M191" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="N191" s="2">
-        <v>44613</v>
+        <v>43009</v>
       </c>
       <c r="O191" s="2">
-        <v>45473</v>
+        <v>73050</v>
+      </c>
+      <c r="P191" t="s">
+        <v>26</v>
       </c>
       <c r="Q191" t="s">
-        <v>962</v>
+        <v>738</v>
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C192" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D192" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E192" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F192" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G192" t="s">
-        <v>754</v>
+        <v>127</v>
+      </c>
+      <c r="H192">
+        <v>100135</v>
       </c>
       <c r="I192" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="J192">
         <v>100135</v>
       </c>
       <c r="K192" t="s">
-        <v>756</v>
+        <v>116</v>
       </c>
       <c r="L192" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M192" t="s">
-        <v>757</v>
+        <v>118</v>
       </c>
       <c r="N192" s="2">
-        <v>45397</v>
+        <v>44613</v>
       </c>
       <c r="O192" s="2">
         <v>45473</v>
       </c>
       <c r="Q192" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C193" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D193" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E193" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F193" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="G193" t="s">
-        <v>56</v>
-      </c>
-      <c r="H193">
-        <v>100637</v>
+        <v>754</v>
       </c>
       <c r="I193" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="J193">
         <v>100135</v>
       </c>
       <c r="K193" t="s">
-        <v>116</v>
+        <v>756</v>
       </c>
       <c r="L193" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M193" t="s">
-        <v>118</v>
+        <v>757</v>
       </c>
       <c r="N193" s="2">
-        <v>45215</v>
+        <v>45397</v>
       </c>
       <c r="O193" s="2">
-        <v>45580</v>
-      </c>
-      <c r="P193" t="s">
-        <v>26</v>
+        <v>45473</v>
       </c>
       <c r="Q193" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>744</v>
+        <v>758</v>
       </c>
       <c r="C194" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D194" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E194" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F194" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="G194" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="H194">
-        <v>100623</v>
+        <v>100637</v>
       </c>
       <c r="I194" t="s">
-        <v>335</v>
+        <v>760</v>
       </c>
       <c r="J194">
         <v>100135</v>
@@ -13417,33 +13422,33 @@
         <v>118</v>
       </c>
       <c r="N194" s="2">
-        <v>45232</v>
+        <v>45215</v>
       </c>
       <c r="O194" s="2">
-        <v>45597</v>
+        <v>45580</v>
       </c>
       <c r="P194" t="s">
         <v>26</v>
       </c>
       <c r="Q194" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="C195" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D195" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E195" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F195" t="s">
         <v>104</v>
@@ -13452,10 +13457,10 @@
         <v>105</v>
       </c>
       <c r="H195">
-        <v>100671</v>
+        <v>100623</v>
       </c>
       <c r="I195" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J195">
         <v>100135</v>
@@ -13470,113 +13475,113 @@
         <v>118</v>
       </c>
       <c r="N195" s="2">
-        <v>45265</v>
+        <v>45232</v>
       </c>
       <c r="O195" s="2">
-        <v>45569</v>
+        <v>45597</v>
       </c>
       <c r="P195" t="s">
         <v>26</v>
       </c>
       <c r="Q195" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C196" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D196" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E196" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F196" t="s">
-        <v>706</v>
+        <v>104</v>
       </c>
       <c r="G196" t="s">
-        <v>707</v>
+        <v>105</v>
       </c>
       <c r="H196">
-        <v>100560</v>
+        <v>100671</v>
       </c>
       <c r="I196" t="s">
-        <v>768</v>
+        <v>331</v>
       </c>
       <c r="J196">
-        <v>100076</v>
+        <v>100135</v>
       </c>
       <c r="K196" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="L196" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="M196" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="N196" s="2">
-        <v>41651</v>
+        <v>45265</v>
       </c>
       <c r="O196" s="2">
-        <v>73050</v>
+        <v>45569</v>
       </c>
       <c r="P196" t="s">
         <v>26</v>
       </c>
       <c r="Q196" t="s">
-        <v>703</v>
+        <v>966</v>
       </c>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C197" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D197" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E197" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F197" t="s">
-        <v>104</v>
+        <v>706</v>
       </c>
       <c r="G197" t="s">
-        <v>105</v>
+        <v>707</v>
       </c>
       <c r="H197">
-        <v>100561</v>
+        <v>100560</v>
       </c>
       <c r="I197" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="J197">
-        <v>100135</v>
+        <v>100076</v>
       </c>
       <c r="K197" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="L197" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="M197" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="N197" s="2">
-        <v>44136</v>
+        <v>41651</v>
       </c>
       <c r="O197" s="2">
         <v>73050</v>
@@ -13585,24 +13590,24 @@
         <v>26</v>
       </c>
       <c r="Q197" t="s">
-        <v>967</v>
+        <v>703</v>
       </c>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C198" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D198" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E198" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F198" t="s">
         <v>104</v>
@@ -13611,10 +13616,10 @@
         <v>105</v>
       </c>
       <c r="H198">
-        <v>100640</v>
+        <v>100561</v>
       </c>
       <c r="I198" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="J198">
         <v>100135</v>
@@ -13629,31 +13634,33 @@
         <v>118</v>
       </c>
       <c r="N198" s="2">
-        <v>45232</v>
+        <v>44136</v>
       </c>
       <c r="O198" s="2">
-        <v>45597</v>
+        <v>73050</v>
       </c>
       <c r="P198" t="s">
         <v>26</v>
       </c>
-      <c r="Q198" s="4"/>
+      <c r="Q198" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C199" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D199" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E199" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F199" t="s">
         <v>104</v>
@@ -13662,10 +13669,10 @@
         <v>105</v>
       </c>
       <c r="H199">
-        <v>100654</v>
+        <v>100640</v>
       </c>
       <c r="I199" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="J199">
         <v>100135</v>
@@ -13680,27 +13687,25 @@
         <v>118</v>
       </c>
       <c r="N199" s="2">
-        <v>45243</v>
+        <v>45232</v>
       </c>
       <c r="O199" s="2">
-        <v>45657</v>
+        <v>45597</v>
       </c>
       <c r="P199" t="s">
         <v>26</v>
       </c>
-      <c r="Q199" t="s">
-        <v>778</v>
-      </c>
+      <c r="Q199" s="4"/>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C200" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D200" t="s">
         <v>30</v>
@@ -13709,51 +13714,51 @@
         <v>31</v>
       </c>
       <c r="F200" t="s">
-        <v>706</v>
+        <v>104</v>
       </c>
       <c r="G200" t="s">
-        <v>707</v>
+        <v>105</v>
       </c>
       <c r="H200">
-        <v>100563</v>
+        <v>100654</v>
       </c>
       <c r="I200" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="J200">
-        <v>100076</v>
+        <v>100135</v>
       </c>
       <c r="K200" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="L200" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="M200" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="N200" s="2">
-        <v>43466</v>
+        <v>45243</v>
       </c>
       <c r="O200" s="2">
-        <v>73050</v>
+        <v>45657</v>
       </c>
       <c r="P200" t="s">
         <v>26</v>
       </c>
       <c r="Q200" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C201" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D201" t="s">
         <v>30</v>
@@ -13762,69 +13767,69 @@
         <v>31</v>
       </c>
       <c r="F201" t="s">
-        <v>104</v>
+        <v>706</v>
       </c>
       <c r="G201" t="s">
-        <v>105</v>
+        <v>707</v>
       </c>
       <c r="H201">
-        <v>100684</v>
+        <v>100563</v>
       </c>
       <c r="I201" t="s">
-        <v>576</v>
+        <v>781</v>
       </c>
       <c r="J201">
-        <v>100135</v>
+        <v>100076</v>
       </c>
       <c r="K201" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="L201" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="M201" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="N201" s="2">
-        <v>45336</v>
+        <v>43466</v>
       </c>
       <c r="O201" s="2">
-        <v>45657</v>
+        <v>73050</v>
       </c>
       <c r="P201" t="s">
         <v>26</v>
       </c>
       <c r="Q201" t="s">
-        <v>968</v>
+        <v>782</v>
       </c>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C202" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D202" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E202" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F202" t="s">
         <v>104</v>
       </c>
       <c r="G202" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="H202">
-        <v>100135</v>
+        <v>100684</v>
       </c>
       <c r="I202" t="s">
-        <v>699</v>
+        <v>576</v>
       </c>
       <c r="J202">
         <v>100135</v>
@@ -13839,24 +13844,27 @@
         <v>118</v>
       </c>
       <c r="N202" s="2">
-        <v>44634</v>
+        <v>45336</v>
       </c>
       <c r="O202" s="2">
-        <v>45473</v>
+        <v>45657</v>
+      </c>
+      <c r="P202" t="s">
+        <v>26</v>
       </c>
       <c r="Q202" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C203" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D203" t="s">
         <v>18</v>
@@ -13868,13 +13876,13 @@
         <v>104</v>
       </c>
       <c r="G203" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H203">
-        <v>100672</v>
+        <v>100135</v>
       </c>
       <c r="I203" t="s">
-        <v>790</v>
+        <v>699</v>
       </c>
       <c r="J203">
         <v>100135</v>
@@ -13889,33 +13897,30 @@
         <v>118</v>
       </c>
       <c r="N203" s="2">
-        <v>45250</v>
+        <v>44634</v>
       </c>
       <c r="O203" s="2">
-        <v>45596</v>
-      </c>
-      <c r="P203" t="s">
-        <v>26</v>
+        <v>45473</v>
       </c>
       <c r="Q203" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C204" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D204" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E204" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F204" t="s">
         <v>104</v>
@@ -13924,10 +13929,10 @@
         <v>105</v>
       </c>
       <c r="H204">
-        <v>100686</v>
+        <v>100672</v>
       </c>
       <c r="I204" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="J204">
         <v>100135</v>
@@ -13942,113 +13947,113 @@
         <v>118</v>
       </c>
       <c r="N204" s="2">
-        <v>45355</v>
+        <v>45250</v>
       </c>
       <c r="O204" s="2">
-        <v>45657</v>
+        <v>45596</v>
       </c>
       <c r="P204" t="s">
         <v>26</v>
       </c>
       <c r="Q204" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C205" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D205" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E205" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="H205">
-        <v>100197</v>
+        <v>100686</v>
       </c>
       <c r="I205" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="J205">
-        <v>100046</v>
+        <v>100135</v>
       </c>
       <c r="K205" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="L205" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="M205" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="N205" s="2">
-        <v>41836</v>
+        <v>45355</v>
       </c>
       <c r="O205" s="2">
-        <v>73050</v>
+        <v>45657</v>
       </c>
       <c r="P205" t="s">
         <v>26</v>
       </c>
       <c r="Q205" t="s">
-        <v>797</v>
+        <v>971</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C206" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D206" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E206" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F206" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H206">
-        <v>100380</v>
+        <v>100197</v>
       </c>
       <c r="I206" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="J206">
-        <v>100486</v>
+        <v>100046</v>
       </c>
       <c r="K206" t="s">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="L206" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="M206" t="s">
-        <v>291</v>
+        <v>165</v>
       </c>
       <c r="N206" s="2">
-        <v>42005</v>
+        <v>41836</v>
       </c>
       <c r="O206" s="2">
         <v>73050</v>
@@ -14057,18 +14062,18 @@
         <v>26</v>
       </c>
       <c r="Q206" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C207" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D207" t="s">
         <v>30</v>
@@ -14083,25 +14088,25 @@
         <v>56</v>
       </c>
       <c r="H207">
-        <v>100573</v>
+        <v>100380</v>
       </c>
       <c r="I207" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="J207">
-        <v>100350</v>
+        <v>100486</v>
       </c>
       <c r="K207" t="s">
-        <v>604</v>
+        <v>289</v>
       </c>
       <c r="L207" t="s">
-        <v>602</v>
+        <v>290</v>
       </c>
       <c r="M207" t="s">
-        <v>603</v>
+        <v>291</v>
       </c>
       <c r="N207" s="2">
-        <v>41883</v>
+        <v>42005</v>
       </c>
       <c r="O207" s="2">
         <v>73050</v>
@@ -14109,17 +14114,19 @@
       <c r="P207" t="s">
         <v>26</v>
       </c>
-      <c r="Q207" s="4"/>
+      <c r="Q207" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C208" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D208" t="s">
         <v>30</v>
@@ -14128,154 +14135,152 @@
         <v>31</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G208" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H208">
-        <v>100626</v>
+        <v>100573</v>
       </c>
       <c r="I208" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="J208">
-        <v>100082</v>
+        <v>100350</v>
       </c>
       <c r="K208" t="s">
-        <v>438</v>
+        <v>604</v>
       </c>
       <c r="L208" t="s">
-        <v>436</v>
+        <v>602</v>
       </c>
       <c r="M208" t="s">
-        <v>437</v>
+        <v>603</v>
       </c>
       <c r="N208" s="2">
-        <v>45194</v>
+        <v>41883</v>
       </c>
       <c r="O208" s="2">
-        <v>45559</v>
+        <v>73050</v>
       </c>
       <c r="P208" t="s">
         <v>26</v>
       </c>
-      <c r="Q208" t="s">
-        <v>808</v>
-      </c>
+      <c r="Q208" s="4"/>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C209" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D209" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E209" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F209" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="G209" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="H209">
-        <v>100135</v>
+        <v>100626</v>
       </c>
       <c r="I209" t="s">
-        <v>755</v>
+        <v>807</v>
       </c>
       <c r="J209">
-        <v>100135</v>
+        <v>100082</v>
       </c>
       <c r="K209" t="s">
-        <v>116</v>
+        <v>438</v>
       </c>
       <c r="L209" t="s">
-        <v>117</v>
+        <v>436</v>
       </c>
       <c r="M209" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="N209" s="2">
-        <v>45404</v>
+        <v>45194</v>
       </c>
       <c r="O209" s="2">
-        <v>45473</v>
+        <v>45559</v>
+      </c>
+      <c r="P209" t="s">
+        <v>26</v>
       </c>
       <c r="Q209" t="s">
-        <v>972</v>
+        <v>808</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>290</v>
+        <v>809</v>
       </c>
       <c r="C210" t="s">
-        <v>291</v>
+        <v>810</v>
       </c>
       <c r="D210" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="E210" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F210" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="G210" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="H210">
-        <v>100486</v>
+        <v>100135</v>
       </c>
       <c r="I210" t="s">
-        <v>289</v>
+        <v>755</v>
       </c>
       <c r="J210">
-        <v>100076</v>
+        <v>100135</v>
       </c>
       <c r="K210" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="L210" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="M210" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="N210" s="2">
-        <v>44228</v>
+        <v>45404</v>
       </c>
       <c r="O210" s="2">
-        <v>45657</v>
-      </c>
-      <c r="P210" t="s">
-        <v>26</v>
+        <v>45473</v>
       </c>
       <c r="Q210" t="s">
-        <v>811</v>
+        <v>972</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>812</v>
+        <v>290</v>
       </c>
       <c r="C211" t="s">
-        <v>813</v>
+        <v>291</v>
       </c>
       <c r="D211" t="s">
         <v>150</v>
@@ -14284,134 +14289,134 @@
         <v>151</v>
       </c>
       <c r="F211" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G211" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H211">
-        <v>100628</v>
+        <v>100486</v>
       </c>
       <c r="I211" t="s">
-        <v>814</v>
+        <v>289</v>
       </c>
       <c r="J211">
-        <v>100303</v>
+        <v>100076</v>
       </c>
       <c r="K211" t="s">
-        <v>815</v>
+        <v>85</v>
       </c>
       <c r="L211" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="M211" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="N211" s="2">
-        <v>45376</v>
+        <v>44228</v>
       </c>
       <c r="O211" s="2">
-        <v>46470</v>
+        <v>45657</v>
+      </c>
+      <c r="P211" t="s">
+        <v>26</v>
       </c>
       <c r="Q211" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C212" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="D212" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E212" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F212" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G212" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H212">
-        <v>100381</v>
+        <v>100628</v>
       </c>
       <c r="I212" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="J212">
-        <v>100466</v>
+        <v>100303</v>
       </c>
       <c r="K212" t="s">
-        <v>170</v>
+        <v>815</v>
       </c>
       <c r="L212" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M212" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="N212" s="2">
-        <v>42005</v>
+        <v>45376</v>
       </c>
       <c r="O212" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P212" t="s">
-        <v>26</v>
+        <v>46470</v>
       </c>
       <c r="Q212" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C213" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D213" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E213" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G213" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H213">
-        <v>100189</v>
+        <v>100381</v>
       </c>
       <c r="I213" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="J213">
-        <v>100462</v>
+        <v>100466</v>
       </c>
       <c r="K213" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="L213" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="M213" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="N213" s="2">
-        <v>41791</v>
+        <v>42005</v>
       </c>
       <c r="O213" s="2">
         <v>73050</v>
@@ -14420,18 +14425,18 @@
         <v>26</v>
       </c>
       <c r="Q213" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C214" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D214" t="s">
         <v>18</v>
@@ -14440,155 +14445,160 @@
         <v>19</v>
       </c>
       <c r="F214" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H214">
-        <v>100303</v>
+        <v>100189</v>
       </c>
       <c r="I214" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="J214">
-        <v>100303</v>
+        <v>100462</v>
       </c>
       <c r="K214" t="s">
-        <v>828</v>
+        <v>135</v>
       </c>
       <c r="L214" t="s">
-        <v>504</v>
+        <v>136</v>
       </c>
       <c r="M214" t="s">
-        <v>505</v>
+        <v>137</v>
       </c>
       <c r="N214" s="2">
-        <v>45425</v>
+        <v>41791</v>
       </c>
       <c r="O214" s="2">
-        <v>45608</v>
+        <v>73050</v>
+      </c>
+      <c r="P214" t="s">
+        <v>26</v>
       </c>
       <c r="Q214" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C215" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D215" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="E215" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F215" t="s">
-        <v>650</v>
+        <v>20</v>
       </c>
       <c r="G215" t="s">
-        <v>651</v>
+        <v>21</v>
       </c>
       <c r="H215">
-        <v>100110</v>
+        <v>100303</v>
       </c>
       <c r="I215" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="J215">
-        <v>100076</v>
+        <v>100303</v>
       </c>
       <c r="K215" t="s">
-        <v>85</v>
+        <v>828</v>
       </c>
       <c r="L215" t="s">
-        <v>86</v>
+        <v>504</v>
       </c>
       <c r="M215" t="s">
-        <v>87</v>
+        <v>505</v>
       </c>
       <c r="N215" s="2">
-        <v>35796</v>
+        <v>45425</v>
       </c>
       <c r="O215" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P215" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q215" s="5" t="s">
-        <v>973</v>
+        <v>45608</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C216" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D216" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E216" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F216" t="s">
-        <v>20</v>
+        <v>650</v>
       </c>
       <c r="G216" t="s">
-        <v>21</v>
+        <v>651</v>
       </c>
       <c r="H216">
-        <v>100463</v>
+        <v>100110</v>
       </c>
       <c r="I216" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="J216">
-        <v>100150</v>
+        <v>100076</v>
       </c>
       <c r="K216" t="s">
-        <v>515</v>
+        <v>85</v>
       </c>
       <c r="L216" t="s">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c r="M216" t="s">
-        <v>216</v>
+        <v>87</v>
       </c>
       <c r="N216" s="2">
-        <v>43891</v>
+        <v>35796</v>
       </c>
       <c r="O216" s="2">
-        <v>45504</v>
-      </c>
-      <c r="Q216" s="4"/>
+        <v>73050</v>
+      </c>
+      <c r="P216" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q216" s="5" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>275</v>
+        <v>833</v>
       </c>
       <c r="C217" t="s">
-        <v>276</v>
+        <v>834</v>
       </c>
       <c r="D217" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E217" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="F217" t="s">
         <v>20</v>
@@ -14597,51 +14607,46 @@
         <v>21</v>
       </c>
       <c r="H217">
-        <v>100490</v>
+        <v>100463</v>
       </c>
       <c r="I217" t="s">
-        <v>274</v>
+        <v>835</v>
       </c>
       <c r="J217">
-        <v>100076</v>
+        <v>100150</v>
       </c>
       <c r="K217" t="s">
-        <v>85</v>
+        <v>515</v>
       </c>
       <c r="L217" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="M217" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="N217" s="2">
-        <v>44206</v>
+        <v>43891</v>
       </c>
       <c r="O217" s="2">
-        <v>46396</v>
-      </c>
-      <c r="P217" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>836</v>
-      </c>
+        <v>45504</v>
+      </c>
+      <c r="Q217" s="4"/>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>837</v>
+        <v>275</v>
       </c>
       <c r="C218" t="s">
-        <v>838</v>
+        <v>276</v>
       </c>
       <c r="D218" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="E218" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F218" t="s">
         <v>20</v>
@@ -14650,148 +14655,148 @@
         <v>21</v>
       </c>
       <c r="H218">
-        <v>100691</v>
+        <v>100490</v>
       </c>
       <c r="I218" t="s">
-        <v>839</v>
+        <v>274</v>
       </c>
       <c r="J218">
-        <v>100007</v>
+        <v>100076</v>
       </c>
       <c r="K218" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="L218" t="s">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="M218" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="N218" s="2">
-        <v>45366</v>
+        <v>44206</v>
       </c>
       <c r="O218" s="2">
-        <v>46067</v>
+        <v>46396</v>
       </c>
       <c r="P218" t="s">
         <v>26</v>
       </c>
       <c r="Q218" t="s">
-        <v>974</v>
+        <v>836</v>
       </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C219" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D219" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="E219" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F219" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="G219" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="H219">
-        <v>100135</v>
+        <v>100691</v>
       </c>
       <c r="I219" t="s">
-        <v>699</v>
+        <v>839</v>
       </c>
       <c r="J219">
-        <v>100135</v>
+        <v>100007</v>
       </c>
       <c r="K219" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="L219" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="M219" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="N219" s="2">
-        <v>44652</v>
+        <v>45366</v>
       </c>
       <c r="O219" s="2">
-        <v>45473</v>
+        <v>46067</v>
+      </c>
+      <c r="P219" t="s">
+        <v>26</v>
       </c>
       <c r="Q219" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C220" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D220" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="E220" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F220" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="G220" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="H220">
-        <v>100384</v>
+        <v>100135</v>
       </c>
       <c r="I220" t="s">
-        <v>844</v>
+        <v>699</v>
       </c>
       <c r="J220">
-        <v>100486</v>
+        <v>100135</v>
       </c>
       <c r="K220" t="s">
-        <v>289</v>
+        <v>116</v>
       </c>
       <c r="L220" t="s">
-        <v>290</v>
+        <v>117</v>
       </c>
       <c r="M220" t="s">
-        <v>291</v>
+        <v>118</v>
       </c>
       <c r="N220" s="2">
-        <v>42005</v>
+        <v>44652</v>
       </c>
       <c r="O220" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P220" t="s">
-        <v>26</v>
+        <v>45473</v>
       </c>
       <c r="Q220" t="s">
-        <v>210</v>
+        <v>976</v>
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C221" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D221" t="s">
         <v>18</v>
@@ -14800,188 +14805,190 @@
         <v>19</v>
       </c>
       <c r="F221" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="G221" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="H221">
-        <v>100625</v>
+        <v>100384</v>
       </c>
       <c r="I221" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="J221">
-        <v>100135</v>
+        <v>100486</v>
       </c>
       <c r="K221" t="s">
-        <v>116</v>
+        <v>289</v>
       </c>
       <c r="L221" t="s">
-        <v>117</v>
+        <v>290</v>
       </c>
       <c r="M221" t="s">
-        <v>118</v>
+        <v>291</v>
       </c>
       <c r="N221" s="2">
-        <v>45180</v>
+        <v>42005</v>
       </c>
       <c r="O221" s="2">
-        <v>45545</v>
+        <v>73050</v>
       </c>
       <c r="P221" t="s">
         <v>26</v>
       </c>
       <c r="Q221" t="s">
-        <v>977</v>
+        <v>210</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C222" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D222" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="E222" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F222" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="G222" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="H222">
-        <v>100677</v>
+        <v>100625</v>
       </c>
       <c r="I222" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="J222">
-        <v>100483</v>
+        <v>100135</v>
       </c>
       <c r="K222" t="s">
-        <v>457</v>
+        <v>116</v>
       </c>
       <c r="L222" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="M222" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="N222" s="2">
-        <v>45327</v>
+        <v>45180</v>
       </c>
       <c r="O222" s="2">
-        <v>46057</v>
+        <v>45545</v>
       </c>
       <c r="P222" t="s">
         <v>26</v>
       </c>
       <c r="Q222" t="s">
-        <v>851</v>
+        <v>977</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C223" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D223" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E223" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G223" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H223">
-        <v>100402</v>
+        <v>100677</v>
       </c>
       <c r="I223" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="J223">
-        <v>100433</v>
+        <v>100483</v>
       </c>
       <c r="K223" t="s">
-        <v>72</v>
+        <v>457</v>
       </c>
       <c r="L223" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="M223" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="N223" s="2">
-        <v>42370</v>
+        <v>45327</v>
       </c>
       <c r="O223" s="2">
-        <v>73050</v>
+        <v>46057</v>
       </c>
       <c r="P223" t="s">
         <v>26</v>
       </c>
-      <c r="Q223" s="4"/>
+      <c r="Q223" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C224" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D224" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E224" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F224" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H224">
-        <v>100520</v>
+        <v>100402</v>
       </c>
       <c r="I224" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="J224">
-        <v>100490</v>
+        <v>100433</v>
       </c>
       <c r="K224" t="s">
-        <v>274</v>
+        <v>72</v>
       </c>
       <c r="L224" t="s">
-        <v>275</v>
+        <v>73</v>
       </c>
       <c r="M224" t="s">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="N224" s="2">
-        <v>44505</v>
+        <v>42370</v>
       </c>
       <c r="O224" s="2">
         <v>73050</v>
@@ -14989,19 +14996,17 @@
       <c r="P224" t="s">
         <v>26</v>
       </c>
-      <c r="Q224" t="s">
-        <v>363</v>
-      </c>
+      <c r="Q224" s="4"/>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C225" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D225" t="s">
         <v>18</v>
@@ -15016,25 +15021,25 @@
         <v>21</v>
       </c>
       <c r="H225">
-        <v>100521</v>
+        <v>100520</v>
       </c>
       <c r="I225" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J225">
-        <v>100104</v>
+        <v>100490</v>
       </c>
       <c r="K225" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="L225" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="M225" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="N225" s="2">
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="O225" s="2">
         <v>73050</v>
@@ -15043,121 +15048,121 @@
         <v>26</v>
       </c>
       <c r="Q225" t="s">
-        <v>861</v>
+        <v>363</v>
       </c>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C226" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D226" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="E226" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F226" t="s">
-        <v>864</v>
+        <v>20</v>
       </c>
       <c r="G226" t="s">
-        <v>865</v>
+        <v>21</v>
       </c>
       <c r="H226">
-        <v>100062</v>
+        <v>100521</v>
       </c>
       <c r="I226" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="J226">
-        <v>100150</v>
+        <v>100104</v>
       </c>
       <c r="K226" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="L226" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="M226" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="N226" s="2">
-        <v>45139</v>
+        <v>44506</v>
       </c>
       <c r="O226" s="2">
-        <v>46119</v>
+        <v>73050</v>
+      </c>
+      <c r="P226" t="s">
+        <v>26</v>
       </c>
       <c r="Q226" t="s">
-        <v>761</v>
+        <v>861</v>
       </c>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C227" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="D227" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="E227" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F227" t="s">
-        <v>20</v>
+        <v>864</v>
       </c>
       <c r="G227" t="s">
-        <v>21</v>
+        <v>865</v>
       </c>
       <c r="H227">
-        <v>100195</v>
+        <v>100062</v>
       </c>
       <c r="I227" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="J227">
-        <v>100096</v>
+        <v>100150</v>
       </c>
       <c r="K227" t="s">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="L227" t="s">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="M227" t="s">
-        <v>323</v>
+        <v>44</v>
       </c>
       <c r="N227" s="2">
-        <v>39753</v>
+        <v>45139</v>
       </c>
       <c r="O227" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P227" t="s">
-        <v>26</v>
+        <v>46119</v>
       </c>
       <c r="Q227" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C228" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D228" t="s">
         <v>18</v>
@@ -15166,51 +15171,51 @@
         <v>19</v>
       </c>
       <c r="F228" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="G228" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="H228">
-        <v>100670</v>
+        <v>100195</v>
       </c>
       <c r="I228" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="J228">
-        <v>100135</v>
+        <v>100096</v>
       </c>
       <c r="K228" t="s">
-        <v>116</v>
+        <v>321</v>
       </c>
       <c r="L228" t="s">
-        <v>117</v>
+        <v>322</v>
       </c>
       <c r="M228" t="s">
-        <v>118</v>
+        <v>323</v>
       </c>
       <c r="N228" s="2">
-        <v>45273</v>
+        <v>39753</v>
       </c>
       <c r="O228" s="2">
-        <v>45596</v>
+        <v>73050</v>
       </c>
       <c r="P228" t="s">
         <v>26</v>
       </c>
       <c r="Q228" t="s">
-        <v>978</v>
+        <v>765</v>
       </c>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C229" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D229" t="s">
         <v>18</v>
@@ -15219,101 +15224,101 @@
         <v>19</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="G229" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="H229">
-        <v>100106</v>
+        <v>100670</v>
       </c>
       <c r="I229" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="J229">
-        <v>100106</v>
+        <v>100135</v>
       </c>
       <c r="K229" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="L229" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="M229" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="N229" s="2">
-        <v>45204</v>
+        <v>45273</v>
       </c>
       <c r="O229" s="2">
-        <v>45566</v>
+        <v>45596</v>
+      </c>
+      <c r="P229" t="s">
+        <v>26</v>
       </c>
       <c r="Q229" t="s">
-        <v>876</v>
+        <v>978</v>
       </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C230" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D230" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E230" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F230" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H230">
-        <v>100522</v>
+        <v>100106</v>
       </c>
       <c r="I230" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="J230">
-        <v>100462</v>
+        <v>100106</v>
       </c>
       <c r="K230" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="L230" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="M230" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="N230" s="2">
-        <v>44506</v>
+        <v>45204</v>
       </c>
       <c r="O230" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P230" t="s">
-        <v>26</v>
+        <v>45566</v>
       </c>
       <c r="Q230" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C231" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D231" t="s">
         <v>30</v>
@@ -15328,40 +15333,45 @@
         <v>21</v>
       </c>
       <c r="H231">
-        <v>100007</v>
+        <v>100522</v>
       </c>
       <c r="I231" t="s">
-        <v>106</v>
+        <v>879</v>
       </c>
       <c r="J231">
-        <v>100007</v>
+        <v>100462</v>
       </c>
       <c r="K231" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="L231" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="M231" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="N231" s="2">
-        <v>44805</v>
+        <v>44506</v>
       </c>
       <c r="O231" s="2">
-        <v>45535</v>
-      </c>
-      <c r="Q231" s="4"/>
+        <v>73050</v>
+      </c>
+      <c r="P231" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>73</v>
+        <v>881</v>
       </c>
       <c r="C232" t="s">
-        <v>74</v>
+        <v>882</v>
       </c>
       <c r="D232" t="s">
         <v>30</v>
@@ -15370,16 +15380,16 @@
         <v>31</v>
       </c>
       <c r="F232" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H232">
-        <v>100433</v>
+        <v>100007</v>
       </c>
       <c r="I232" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="J232">
         <v>100007</v>
@@ -15394,60 +15404,55 @@
         <v>189</v>
       </c>
       <c r="N232" s="2">
-        <v>44621</v>
+        <v>44805</v>
       </c>
       <c r="O232" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P232" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q232" t="s">
-        <v>785</v>
-      </c>
+        <v>45535</v>
+      </c>
+      <c r="Q232" s="4"/>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>883</v>
+        <v>73</v>
       </c>
       <c r="C233" t="s">
-        <v>884</v>
+        <v>74</v>
       </c>
       <c r="D233" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E233" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="F233" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G233" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H233">
-        <v>100550</v>
+        <v>100433</v>
       </c>
       <c r="I233" t="s">
-        <v>885</v>
+        <v>72</v>
       </c>
       <c r="J233">
-        <v>100106</v>
+        <v>100007</v>
       </c>
       <c r="K233" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="L233" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="M233" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="N233" s="2">
-        <v>43472</v>
+        <v>44621</v>
       </c>
       <c r="O233" s="2">
         <v>73050</v>
@@ -15455,220 +15460,222 @@
       <c r="P233" t="s">
         <v>26</v>
       </c>
-      <c r="Q233" s="3" t="s">
-        <v>886</v>
+      <c r="Q233" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C234" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D234" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="E234" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="F234" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="G234" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="H234">
-        <v>100439</v>
+        <v>100550</v>
       </c>
       <c r="I234" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="J234">
-        <v>100439</v>
+        <v>100106</v>
       </c>
       <c r="K234" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="L234" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M234" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N234" s="2">
-        <v>45299</v>
+        <v>43472</v>
       </c>
       <c r="O234" s="2">
-        <v>46029</v>
-      </c>
-      <c r="Q234" s="6" t="s">
-        <v>975</v>
+        <v>73050</v>
+      </c>
+      <c r="P234" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q234" s="3" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C235" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D235" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E235" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F235" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="G235" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="H235">
-        <v>100683</v>
+        <v>100439</v>
       </c>
       <c r="I235" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="J235">
-        <v>100683</v>
+        <v>100439</v>
       </c>
       <c r="K235" t="s">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="L235" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="M235" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="N235" s="2">
-        <v>44743</v>
+        <v>45299</v>
       </c>
       <c r="O235" s="2">
-        <v>73050</v>
-      </c>
-      <c r="Q235" t="s">
-        <v>893</v>
+        <v>46029</v>
+      </c>
+      <c r="Q235" s="6" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C236" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D236" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E236" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F236" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G236" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H236">
-        <v>100439</v>
+        <v>100683</v>
       </c>
       <c r="I236" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="J236">
-        <v>100439</v>
+        <v>100683</v>
       </c>
       <c r="K236" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="L236" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="M236" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="N236" s="2">
-        <v>45425</v>
+        <v>44743</v>
       </c>
       <c r="O236" s="2">
-        <v>45638</v>
+        <v>73050</v>
       </c>
       <c r="Q236" t="s">
-        <v>679</v>
+        <v>893</v>
       </c>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C237" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D237" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E237" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F237" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G237" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H237">
-        <v>100540</v>
+        <v>100439</v>
       </c>
       <c r="I237" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="J237">
-        <v>100433</v>
+        <v>100439</v>
       </c>
       <c r="K237" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="L237" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="M237" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="N237" s="2">
-        <v>44512</v>
+        <v>45425</v>
       </c>
       <c r="O237" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P237" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q237" s="4"/>
+        <v>45638</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C238" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D238" t="s">
         <v>30</v>
@@ -15677,31 +15684,31 @@
         <v>31</v>
       </c>
       <c r="F238" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H238">
-        <v>100524</v>
+        <v>100540</v>
       </c>
       <c r="I238" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="J238">
-        <v>100096</v>
+        <v>100433</v>
       </c>
       <c r="K238" t="s">
-        <v>321</v>
+        <v>72</v>
       </c>
       <c r="L238" t="s">
-        <v>322</v>
+        <v>73</v>
       </c>
       <c r="M238" t="s">
-        <v>323</v>
+        <v>74</v>
       </c>
       <c r="N238" s="2">
-        <v>44506</v>
+        <v>44512</v>
       </c>
       <c r="O238" s="2">
         <v>73050</v>
@@ -15709,19 +15716,17 @@
       <c r="P238" t="s">
         <v>26</v>
       </c>
-      <c r="Q238" s="5" t="s">
-        <v>927</v>
-      </c>
+      <c r="Q238" s="4"/>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C239" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D239" t="s">
         <v>30</v>
@@ -15736,25 +15741,25 @@
         <v>21</v>
       </c>
       <c r="H239">
-        <v>100369</v>
+        <v>100524</v>
       </c>
       <c r="I239" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="J239">
-        <v>100490</v>
+        <v>100096</v>
       </c>
       <c r="K239" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="L239" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="M239" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="N239" s="2">
-        <v>28139</v>
+        <v>44506</v>
       </c>
       <c r="O239" s="2">
         <v>73050</v>
@@ -15762,167 +15767,170 @@
       <c r="P239" t="s">
         <v>26</v>
       </c>
-      <c r="Q239" s="4"/>
+      <c r="Q239" s="5" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C240" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D240" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E240" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F240" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G240" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H240">
-        <v>100439</v>
+        <v>100369</v>
       </c>
       <c r="I240" t="s">
-        <v>839</v>
+        <v>905</v>
       </c>
       <c r="J240">
-        <v>100439</v>
+        <v>100490</v>
       </c>
       <c r="K240" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="L240" t="s">
-        <v>59</v>
+        <v>275</v>
       </c>
       <c r="M240" t="s">
-        <v>60</v>
+        <v>276</v>
       </c>
       <c r="N240" s="2">
-        <v>44935</v>
+        <v>28139</v>
       </c>
       <c r="O240" s="2">
-        <v>46387</v>
-      </c>
-      <c r="Q240" t="s">
-        <v>928</v>
-      </c>
+        <v>73050</v>
+      </c>
+      <c r="P240" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q240" s="4"/>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C241" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D241" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E241" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G241" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H241">
-        <v>100600</v>
+        <v>100439</v>
       </c>
       <c r="I241" t="s">
-        <v>910</v>
+        <v>839</v>
       </c>
       <c r="J241">
-        <v>100056</v>
+        <v>100439</v>
       </c>
       <c r="K241" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="L241" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="M241" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="N241" s="2">
-        <v>45397</v>
+        <v>44935</v>
       </c>
       <c r="O241" s="2">
-        <v>45761</v>
+        <v>46387</v>
       </c>
       <c r="Q241" t="s">
-        <v>911</v>
+        <v>928</v>
       </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C242" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D242" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E242" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F242" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G242" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H242">
-        <v>100135</v>
+        <v>100600</v>
       </c>
       <c r="I242" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="J242">
-        <v>100135</v>
+        <v>100056</v>
       </c>
       <c r="K242" t="s">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c r="L242" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
       <c r="M242" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="N242" s="2">
-        <v>45092</v>
+        <v>45397</v>
       </c>
       <c r="O242" s="2">
-        <v>45657</v>
+        <v>45761</v>
       </c>
       <c r="Q242" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C243" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D243" t="s">
         <v>18</v>
@@ -15937,78 +15945,75 @@
         <v>21</v>
       </c>
       <c r="H243">
-        <v>100525</v>
+        <v>100135</v>
       </c>
       <c r="I243" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="J243">
-        <v>100106</v>
+        <v>100135</v>
       </c>
       <c r="K243" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="L243" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="M243" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="N243" s="2">
-        <v>44506</v>
+        <v>45092</v>
       </c>
       <c r="O243" s="2">
-        <v>73050</v>
-      </c>
-      <c r="P243" t="s">
-        <v>26</v>
+        <v>45657</v>
       </c>
       <c r="Q243" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>86</v>
+        <v>916</v>
       </c>
       <c r="C244" t="s">
-        <v>87</v>
+        <v>917</v>
       </c>
       <c r="D244" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="E244" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F244" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="G244" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="H244">
-        <v>100076</v>
+        <v>100525</v>
       </c>
       <c r="I244" t="s">
-        <v>85</v>
+        <v>918</v>
       </c>
       <c r="J244">
-        <v>100682</v>
+        <v>100106</v>
       </c>
       <c r="K244" t="s">
-        <v>814</v>
+        <v>23</v>
       </c>
       <c r="L244" t="s">
-        <v>812</v>
+        <v>24</v>
       </c>
       <c r="M244" t="s">
-        <v>813</v>
+        <v>25</v>
       </c>
       <c r="N244" s="2">
-        <v>35796</v>
+        <v>44506</v>
       </c>
       <c r="O244" s="2">
         <v>73050</v>
@@ -16017,28 +16022,82 @@
         <v>26</v>
       </c>
       <c r="Q244" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>86</v>
+      </c>
+      <c r="C245" t="s">
+        <v>87</v>
+      </c>
+      <c r="D245" t="s">
+        <v>150</v>
+      </c>
+      <c r="E245" t="s">
+        <v>151</v>
+      </c>
+      <c r="F245" t="s">
+        <v>104</v>
+      </c>
+      <c r="G245" t="s">
+        <v>105</v>
+      </c>
+      <c r="H245">
+        <v>100076</v>
+      </c>
+      <c r="I245" t="s">
+        <v>85</v>
+      </c>
+      <c r="J245">
+        <v>100682</v>
+      </c>
+      <c r="K245" t="s">
+        <v>814</v>
+      </c>
+      <c r="L245" t="s">
+        <v>812</v>
+      </c>
+      <c r="M245" t="s">
+        <v>813</v>
+      </c>
+      <c r="N245" s="2">
+        <v>35796</v>
+      </c>
+      <c r="O245" s="2">
+        <v>73050</v>
+      </c>
+      <c r="P245" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q245" t="s">
         <v>920</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q245">
-    <sortCondition ref="C204:C245"/>
+    <sortCondition ref="C63:C245"/>
   </sortState>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q179:Q1048576 Q1:Q130 Q132:Q177">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="Q233" r:id="rId1" xr:uid="{9333580E-9760-402E-94B9-39A1142D4354}"/>
+    <hyperlink ref="Q234" r:id="rId1" xr:uid="{9333580E-9760-402E-94B9-39A1142D4354}"/>
     <hyperlink ref="Q101" r:id="rId2" xr:uid="{1FF71D4B-A748-4006-BC50-337109AB21F8}"/>
     <hyperlink ref="Q104" r:id="rId3" xr:uid="{3FB96040-455F-465B-A433-FB33EC34BDC8}"/>
-    <hyperlink ref="Q110" r:id="rId4" xr:uid="{07E46988-4280-4D84-A428-71F76ACAAA33}"/>
-    <hyperlink ref="Q115" r:id="rId5" xr:uid="{5670A335-51AF-4329-BF7B-173A7223F291}"/>
-    <hyperlink ref="Q215" r:id="rId6" xr:uid="{048527FA-0845-47D3-A001-60DD35A5D091}"/>
-    <hyperlink ref="Q234" r:id="rId7" xr:uid="{948B1878-82BE-4865-8D4A-A0F12D641D28}"/>
-    <hyperlink ref="Q238" r:id="rId8" xr:uid="{24061813-81E3-4E27-89C8-761CB14E307B}"/>
+    <hyperlink ref="Q111" r:id="rId4" xr:uid="{07E46988-4280-4D84-A428-71F76ACAAA33}"/>
+    <hyperlink ref="Q116" r:id="rId5" xr:uid="{5670A335-51AF-4329-BF7B-173A7223F291}"/>
+    <hyperlink ref="Q216" r:id="rId6" xr:uid="{048527FA-0845-47D3-A001-60DD35A5D091}"/>
+    <hyperlink ref="Q235" r:id="rId7" xr:uid="{948B1878-82BE-4865-8D4A-A0F12D641D28}"/>
+    <hyperlink ref="Q239" r:id="rId8" xr:uid="{24061813-81E3-4E27-89C8-761CB14E307B}"/>
+    <hyperlink ref="Q109" r:id="rId9" xr:uid="{C77F3EFB-4BF3-44F6-B332-218016D2C878}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/express/db/employees.xlsx
+++ b/express/db/employees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Projects\africarice-hr\express\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A32CAC-F70C-4E1B-A6F1-2C6D201F445E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345113A5-29C0-4DD4-90AF-559ED8635830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="15330" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3115,7 +3115,17 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{FD62377D-6C57-45C7-9ECC-E55899CCDD57}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{41CCC563-58C5-4AD8-8129-53F6DC26DA6B}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3436,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="I235" workbookViewId="0">
+      <selection activeCell="M245" sqref="M245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10678,7 +10688,7 @@
         <v>85</v>
       </c>
       <c r="L141" t="s">
-        <v>86</v>
+        <v>692</v>
       </c>
       <c r="M141" t="s">
         <v>87</v>
@@ -16083,10 +16093,13 @@
     <sortCondition ref="C63:C245"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q179:Q1048576 Q1:Q130 Q132:Q177">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L141">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="Q234" r:id="rId1" xr:uid="{9333580E-9760-402E-94B9-39A1142D4354}"/>
